--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="467">
   <si>
     <t>Category</t>
   </si>
@@ -37,9 +37,36 @@
     <t>Publish time</t>
   </si>
   <si>
+    <t>Informative Talk</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Demo Video</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KRxhnSkgxtk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y2cRcOPHL_U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hOWTWlcEfUs</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=8-wzjpZA2sc</t>
   </si>
   <si>
@@ -100,6 +127,9 @@
     <t>https://www.youtube.com/watch?v=s-f4lCETxu0</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=B2q8TYUZ2vg</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HxW-4Y8BOT0</t>
   </si>
   <si>
@@ -262,6 +292,9 @@
     <t>https://www.youtube.com/watch?v=bHIhgxav9LY</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=dqe0mR63fyo</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=lXfEK8G8CUI</t>
   </si>
   <si>
@@ -331,6 +364,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>“It’s An Emergency!” The Number Of Men Having No Sex Increased 180%! - Professor Scott Galloway</t>
+  </si>
+  <si>
+    <t>Streaming for LangChain Agents + FastAPI</t>
+  </si>
+  <si>
+    <t>A New Era of AI Has Just Begun</t>
+  </si>
+  <si>
     <t>AI for Good: A discussion on addressing real-world problems with AI</t>
   </si>
   <si>
@@ -391,6 +433,9 @@
     <t>Open Interpreter: 5 Ways People Are Using The Hottest AI Project on Github</t>
   </si>
   <si>
+    <t>Ian Bremmer and Mustafa Suleyman: How AI Could Upend Geopolitics | Foreign Affairs Interview</t>
+  </si>
+  <si>
     <t>From Dropout to DOAC: Steven Bartlett's Secrets to Success | A Bit of Optimism</t>
   </si>
   <si>
@@ -553,6 +598,9 @@
     <t>The Big Misconception About Electricity</t>
   </si>
   <si>
+    <t>Simon Sinek Best Ever Motivational Speech COMPILATION - MOST INSPIRATIONAL ADVICE VIDEO EVER</t>
+  </si>
+  <si>
     <t>How The Immune System ACTUALLY Works – IMMUNE</t>
   </si>
   <si>
@@ -617,6 +665,143 @@
   </si>
   <si>
     <t>Eigenvectors and eigenvalues | Chapter 14, Essence of linear algebra</t>
+  </si>
+  <si>
+    <t>If you enjoyed this video, you can listen to my first conversation with Scott, here: https://www.youtube.com/watch?v=vHpZEMesriU
+0:00 Intro
+02:46 Understanding Men's Struggles &amp; Addressing societal issues 
+05:18 Exploring biases in the education system affecting boys.
+16:53 The impact of AI-driven relationships.
+22:24 Tips for building real-life connections amidst online distractions.
+26:33 Exploring the crisis in romantic relationships among men.
+28:55 Analysing societal expectations affecting women's relationships.
+31:41 The disproportionate focus on attractive men in online dating.
+35:54 Tips for young men on making money and investing wisely.
+43:13 Importance of diversification and starting early in investing.
+44:21 Role of mentors in the development of young men.
+50:09 Emphasising discipline and character in personal growth.
+01:02:37 How moments of rock bottom lead to personal growth.
+01:03:30 Importance of moderation and self-awareness in personal development.
+01:05:40 Balancing career, fitness, and social life for holistic growth.
+01:08:53 Addressing societal issues through economic reforms.
+01:18:21 Modern interpretation of masculinity and romantic relationships.
+01:23:09 Acknowledging challenges in online dating and building confidence.
+01:25:22 Discussing the dynamics favouring the top 10% in online dating.
+01:27:23 Importance of economic policies for genuine connections.
+01:32:48 Valuing social connections in the workplace.
+01:42:11 Discussing the need for regulation in AI and its impact on society.
+01:45:49 AI's role in creating purpose beyond traditional work.
+01:46:46 Exploring new job opportunities in the age of AI.
+01:49:45 Discussing the effects of autonomous driving on jobs.
+01:51:23 Analysing the positive impact of AI on job opportunities.
+You can purchase Scott’s most recent book, ‘Adrift: 100 Charts that Reveal Why America is on the Brink of Change’, here: https://bit.ly/3PCIEbc
+Follow Scott:
+Instagram: https://bit.ly/3NdunjW
+Twitter: https://bit.ly/3W9Y4Gn
+Listen on:
+Apple podcast - https://podcasts.apple.com/gb/podcast/the-diary-of-a-ceo-by-steven-bartlett/id1291423644
+Spotify - https://open.spotify.com/show/7iQXmUT7XGuZSzAMjoNWlX
+Join my exclusive Telegram Community: https://g2ul0.app.link/SBExclusiveCommunity
+FOLLOW ►
+Instagram: https://www.instagram.com/steven/
+Twitter: https://twitter.com/SteveBartlettSC
+Linkedin: https://www.linkedin.com/in/steven-bartlett-56986834/
+Sponsors:
+Wework: https://we.co/ceoworks
+Huel: https://g2ul0.app.link/G4RjcdKNKsb</t>
+  </si>
+  <si>
+    <t>In chapter 10 of the LangChain series we'll work from LangChain streaming 101 through to developing streaming for LangChain Agents and serving it through FastAPI.
+With what we cover here, you'll be able to go from never having used streaming to deploying it in production in no time.
+We'll focus on using OpenAI's GPT-3.5-turbo model via LangChain's ChatOpenAI object. Learning how to do simple terminal (StdOut) streaming with LLMs, up to parsing stream outputs with Async Iterator streaming.
+📌 Code notebook:
+https://github.com/pinecone-io/examples/blob/master/learn/generation/langchain/handbook/09-langchain-streaming/09-langchain-streaming.ipynb
+📌 FastAPI template code:
+https://github.com/pinecone-io/examples/blob/master/learn/generation/langchain/handbook/09-langchain-streaming/main.py
+🌲 Subscribe for Latest Articles and Videos:
+https://www.pinecone.io/newsletter-signup/
+👋🏼 AI Development:
+https://aurelio.ai
+👾 Discord:
+https://discord.gg/c5QtDB9RAP
+Twitter: https://twitter.com/jamescalam
+LinkedIn: https://www.linkedin.com/in/jamescalam/
+00:00 Streaming for LLMs and Agents
+01:38 Simple StdOut Streaming in LangChain
+05:03 Streaming with LangChain Agents
+07:56 Final Output Streaming
+10:02 Custom Callback Handlers in LangChain
+14:16 FastAPI with LangChain Agent Streaming
+22:56 Confirming we have Agent Streaming
+24:32 Custom Callback Handlers for Async
+26:26 Final Things to Consider
+#artificialintelligence #langchain #openai #chatgpt #nlp #deeplearning</t>
+  </si>
+  <si>
+    <t>Here's the AI News from this week that you probably missed. Check out our sponsor, https://coda.io/matt for 25% off or 3-months free.
+Discover More From Me:
+🛠️ Explore hundreds of AI Tools: https://futuretools.io/
+📰 Weekly Newsletter: https://www.futuretools.io/newsletter
+😊 Discord Community: https://futuretools.io/discord
+🐤 Follow me on Twitter: https://twitter.com/mreflow
+🧵 Follow me on Threads: https://www.threads.net/@mr.eflow
+🐺 My personal blog: https://mattwolfe.com/
+Resources From Today's Video:
+ChatGPT video: https://openai.com/blog/chatgpt-can-now-see-hear-and-speak?ref=futuretools.io
+Education diagram: https://twitter.com/mckaywrigley/status/1707408491110080602
+No more homework: https://twitter.com/petergyang/status/1707119323729580416
+ChatGPT bro: https://twitter.com/gopatrik/status/1707107901603713462
+ChatGPT internet access: https://twitter.com/OpenAI/status/1707077710047216095
+Meta AI assistants: https://about.fb.com/news/2023/09/introducing-ai-powered-assistants-characters-and-creative-tools/?ref=futuretools.io
+Meta glasses: https://about.fb.com/news/2023/09/new-ray-ban-meta-smart-glasses/?ref=futuretools.io
+Coda: https://coda.io/matt
+Windows update: https://blogs.windows.com/windowsexperience/2023/09/26/the-most-personal-windows-11-experience-begins-rolling-out-today/?ref=futuretools.io
+macOS Sonoma: https://www.apple.com/newsroom/2023/09/macos-sonoma-is-available-today/?ref=futuretools.io
+Anthropic Amazon: https://www.anthropic.com/index/anthropic-amazon?ref=futuretools.io
+AWS AI tools: https://www.aboutamazon.com/news/aws/aws-amazon-bedrock-general-availability-generative-ai-innovations
+Cloudflare AI: https://techcrunch.com/2023/09/27/cloudflare-launches-new-ai-tools-to-help-customers-deploy-and-run-models/?ref=futuretools.io
+Snap Microsoft ads: https://techcrunch.com/2023/09/25/snap-partners-with-microsoft-on-ads-in-its-my-ai-chatbot-feature/
+Spotify translations: https://www.theverge.com/2023/9/25/23888009/spotify-podcast-translation-voice-replication-open-ai?ref=futuretools.io
+Getty Images AI: https://www.theverge.com/2023/9/25/23884679/getty-ai-generative-image-platform-launch?ref=futuretools.io
+Leonardo Elements: https://intercom.help/leonardo-ai/en/articles/8388167-feature-release-elements?ref=futuretools.io
+Midjourney Office Hours: https://twitter.com/saana_ai/status/1707116040319349184
+Pika encrypt video: https://twitter.com/pika_labs/status/1705909336952971691
+Genmo video effects: https://twitter.com/genmoai/status/1706774783420199013
+Polycam Gaussian splatting: https://twitter.com/Polycam3D/status/1707449958947762451
+Zapier Canvas: https://techcrunch.com/2023/09/28/zapier-launches-canvas-an-ai-powered-flowchart-tool/?ref=futuretools.io
+Google opt-out: https://www.theverge.com/2023/9/28/23894779/google-ai-extended-training-data-toggle-bard-vertex?ref=futuretools.io
+Writers Guild strike over: https://www.theverge.com/2023/9/26/23889334/wga-strike-end-hollywood-writers?ref=futuretools.io
+Tesla Optimus: https://www.teslarati.com/tesla-optimus-robot-sort-objects-autonomously/?ref=futuretools.io
+Zuckerberg metaverse interview: https://www.youtube.com/watch?v=MVYrJJNdrEg
+AI created jobs: https://www.digitalinformationworld.com/2023/09/78-of-companies-say-ai-created-more-jobs.html?ref=futuretools.io
+Future Tools: https://www.futuretools.io/
+Outro music generated by Mubert https://mubert.com/render
+Sponsorship/Media Inquiries: https://tally.so/r/nrBVlp
+#AINews #AITools #GenerativeArt
+Time Stamps:
+0:00 Intro
+0:55 ChatGPT Can Hear, See &amp; Speak
+4:02 ChatGPT Can Browse The Internet
+4:37 Tons of Meta AI News
+6:40 Meta AI Sunglasses
+8:16 Coda.io
+10:47 AI Now In Windows 11
+12:48 New Version of macOS
+12:23 Amazon and Anthropic $4B Deal
+14:30 Amazon Bedrock Widely Available
+14:50 Cloudflare Launches AI Tools
+15:18 Snap Partners With Microsoft
+16:00 Spotify Cloning Podcast Voices
+16:16 Getty AI Image Generator
+16:51 Leonardo Releases LoRAs
+17:59 Pika Adds Encrypt Feature
+18:34 Genmo Releases Replay FX
+19:36 Polycam Does Gaussian Splatting
+21:27 WGA Strike is Over With AI Implications
+21:56 Tesla Optimus Robot
+22:18 Lex &amp; Zuck In The Metaverse
+23:53 78% of Companies Say AI Creates Jobs
+25:50 Final Thoughts</t>
   </si>
   <si>
     <t>Much of the conversation about AI these days is focused on cutting-edge technologies, like generative AI, and the potential risks these technologies could pose to society. At the same time, AI is one of our most powerful tools when it comes to addressing the biggest challenges we face in the areas of climate change, public health, and disaster management. AI has already been deployed as a key component of many real-world applications that are having a positive impact on things like making renewable energy sources a more viable alternative to fossil fuels, providing access to reliable information in more of the world’s languages, and allowing for more effective planning, logistics, and resource allocation in the event of a disaster._x000D_
@@ -808,9 +993,9 @@
   </si>
   <si>
     <t>Learn how Bard can help you do more with the Google apps and services you use every day — like Maps, YouTube, Gmail and more.
-Subscribe to our Channel: https://www.youtube.com/google_x000D_
-Tweet with us on Twitter: https://twitter.com/google_x000D_
-Follow us on Instagram: https://www.instagram.com/google_x000D_
+Subscribe to our Channel: https://www.youtube.com/google_x005F_x000D_
+Tweet with us on Twitter: https://twitter.com/google_x005F_x000D_
+Follow us on Instagram: https://www.instagram.com/google_x005F_x000D_
 Join us on Facebook: https://www.facebook.com/Google</t>
   </si>
   <si>
@@ -1042,6 +1227,18 @@
 Learn more: https://breakdown.network/</t>
   </si>
   <si>
+    <t>Foreign Affairs invites you to listen to its podcast, the Foreign Affairs Interview. This episode with Ian Bremmer and Mustafa Suleyman was originally published on September 7, 2023.
+Ever since the company OpenAI unveiled ChatGPT last year, there have been constant warnings about the effects of artificial intelligence on just about everything. 
+Ian Bremmer, the founder of the Eurasia Group, and Mustafa Suleyman, founder of the AI companies DeepMind and Inflection AI, highlight what may be the most significant effect in a new essay for Foreign Affairs. They argue that AI will transform power, including the power balance between states and the companies driving the new technology. Policymakers are already behind the curve, they warn, and if they do not catch up soon, it is possible they never will.
+Sources for the episode:
+“The AI Power Paradox” by Ian Bremmer and Mustafa Suleyman
+https://www.foreignaffairs.com/world/artificial-intelligence-power-paradox
+“The Technopolar Moment” by Ian Bremmer
+https://www.foreignaffairs.com/articles/world/ian-bremmer-big-tech-global-order
+The Coming Wave: Technology, Power, and the Twenty-first Century's Greatest Dilemma by Mustafa Suleyman
+https://www.amazon.com/Coming-Wave-Technology-Twenty-first-Centurys/dp/0593593952</t>
+  </si>
+  <si>
     <t>From a university dropout to a globally recognized entrepreneur, Steven Bartlett has paved his path with determination and an unrivaled attention to detail. In this special conversation for 'A Bit of Optimism', we uncover the man behind 'The Diary of a CEO' and dive deep into Steven's philosophies that have guided his monumental rise.
 Ahead of the release of his highly anticipated book, Steven shared pearls of wisdom on knowing when to persevere and when to quit. One of the leading minds of this generation, he offers not just a bit—but a wealth of optimism.
 For more insights from Steven, watch @TheDiaryOfACEO and check out his new book available now: https://smarturl.it/DOACbook. 
@@ -1313,16 +1510,16 @@
 Challenging the Western perspective on purpose and happiness, focusing on a different approach.
 18:50 - 19:36 Embracing Life's Challenges and Purpose
 Encouraging a mindset of embracing challenges, improving skills, and finding purpose in life.
-SUBSCRIBE NOW FOR MORE CONTAGIOUSLY INSPIRING STORIES: http://bit.ly/BrightVibesSubscribe_x000D_
-_x000D__x000D_
------_x000D_
-_x000D_
-Visit BrightVibes.com for more contagiously inspiring stories  _x000D_
-http://brightvibes.com_x000D_
-_x000D_
-Other ways to connect with us… _x000D_
-FACEBOOK: http://facebook.com/brightvibes_x000D_
-TWITTER: https://twitter.com/brightvibes_com_x000D_
+SUBSCRIBE NOW FOR MORE CONTAGIOUSLY INSPIRING STORIES: http://bit.ly/BrightVibesSubscribe_x005F_x000D_
+_x005F_x000D__x005F_x000D_
+-----_x005F_x000D_
+_x005F_x000D_
+Visit BrightVibes.com for more contagiously inspiring stories  _x005F_x000D_
+http://brightvibes.com_x005F_x000D_
+_x005F_x000D_
+Other ways to connect with us… _x005F_x000D_
+FACEBOOK: http://facebook.com/brightvibes_x005F_x000D_
+TWITTER: https://twitter.com/brightvibes_com_x005F_x000D_
 INSTAGRAM: http://instagram.com/brightvibesmedia</t>
   </si>
   <si>
@@ -2584,6 +2781,30 @@
 Produced by Derek Muller, Petr Lebedev and Emily Zhang</t>
   </si>
   <si>
+    <t>Simon Sinek delivers powerful insight and advice on winning, empathy, addictions, next-gen and how to navigate the future. 
+Music:
+Composer: Whitesand (Martynas Lau) 
+Year: 2021 
+Title: The Other Side
+Composer: Wild Wonder
+Title: Hit the Ground Running
+Composer: Whitesand (Martynas Lau) 
+Year: 2021 
+Title: Animal Heart
+Composer: Whitesand (Martynas Lau) 
+Year: 2020 
+Title: Guantamo
+Composer: Whitesand (Martynas Lau) 
+Year: 2021 
+Title: Exiled
+Composer: Whitesand (Martynas Lau) 
+Year: 2021 
+Title: Deserter
+Composer: Whitesand (Martynas Lau) 
+Year: 2021 
+Title: No More Running Away</t>
+  </si>
+  <si>
     <t>To preorder IMMUNE click here: https://kgs.link/ImmuneBook –– It’s available in English and German and at online retailers it should be available in pretty much all countries too.
 Sources &amp; further reading:
 https://sites.google.com/view/sources-immunesystemexplained/
@@ -2828,8 +3049,8 @@
 Help fund future projects: https://www.patreon.com/3blue1brown
 An equally valuable form of support is to simply share some of the videos.
 Special thanks to these supporters: http://3b1b.co/sir-thanks
-Home page: https://www.3blue1brown.com_x000D_
-_x000D_
+Home page: https://www.3blue1brown.com_x005F_x000D_
+_x005F_x000D_
 Awesome fan-made interactives:
 https://prajwalsouza.github.io/Experiments/Epidemic-Simulation.html
 https://learningsim.itch.io/pandemic-spread-simulation
@@ -2845,9 +3066,9 @@
 https://youtu.be/MZ957qhzcjI
 Marcel Salathé on Contact Tracing:
 https://twitter.com/marcelsalathe/status/1242430736944201730
-------------------_x000D_
-_x000D_
-These animations are made using manim, a scrappy open-source python library:  https://github.com/3b1b/manim_x000D_
+------------------_x005F_x000D_
+_x005F_x000D_
+These animations are made using manim, a scrappy open-source python library:  https://github.com/3b1b/manim_x005F_x000D_
 Code for this video:
 https://github.com/3b1b/videos/blob/master/_2020/sir.py
 Honestly, given that the code for that video is meant for demo purposes, and not meant to reflect the true data of COVID-19, if you want to apply these ideas to the current situation I'd recommend looking for more professional epidemiological modeling tools that are less centered around animations and pedagogy and more focused on accurate predictions.  For example, the Institute for Disease Modeling has a lot of models free for people to look at and play with.
@@ -2856,25 +3077,25 @@
 Candlepower by Chris Zabriskie is licensed under a Creative Commons Attribution license (https://creativecommons.org/licenses/by/4.0/)
 Source: http://chriszabriskie.com/divider/
 Artist: http://chriszabriskie.com/
-Other music by Vincent Rubinetti._x000D_
-Download the music on Bandcamp:_x000D_
-https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x000D_
-_x000D_
-Stream the music on Spotify:_x000D_
-https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x000D_
-_x000D_
-If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x000D_
-_x000D_
-------------------_x000D_
-_x000D_
-3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x000D_
-_x000D_
-Various social media stuffs:_x000D_
-Website: https://www.3blue1brown.com_x000D_
-Twitter: https://twitter.com/3blue1brown_x000D_
-Reddit: https://www.reddit.com/r/3blue1brown_x000D_
-Instagram: https://www.instagram.com/3blue1brown_animations/_x000D_
-Patreon: https://patreon.com/3blue1brown_x000D_
+Other music by Vincent Rubinetti._x005F_x000D_
+Download the music on Bandcamp:_x005F_x000D_
+https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x005F_x000D_
+_x005F_x000D_
+Stream the music on Spotify:_x005F_x000D_
+https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x005F_x000D_
+_x005F_x000D_
+If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x005F_x000D_
+_x005F_x000D_
+------------------_x005F_x000D_
+_x005F_x000D_
+3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x005F_x000D_
+_x005F_x000D_
+Various social media stuffs:_x005F_x000D_
+Website: https://www.3blue1brown.com_x005F_x000D_
+Twitter: https://twitter.com/3blue1brown_x005F_x000D_
+Reddit: https://www.reddit.com/r/3blue1brown_x005F_x000D_
+Instagram: https://www.instagram.com/3blue1brown_animations/_x005F_x000D_
+Patreon: https://patreon.com/3blue1brown_x005F_x000D_
 Facebook: https://www.facebook.com/3blue1brown</t>
   </si>
   <si>
@@ -3485,15 +3706,21 @@
 Reddit: https://www.reddit.com/r/3Blue1Brown</t>
   </si>
   <si>
+    <t>The Diary Of A CEO</t>
+  </si>
+  <si>
+    <t>James Briggs</t>
+  </si>
+  <si>
+    <t>Matt Wolfe</t>
+  </si>
+  <si>
     <t>DeepLearningAI</t>
   </si>
   <si>
     <t xml:space="preserve">Yuval Noah Harari </t>
   </si>
   <si>
-    <t>Matt Wolfe</t>
-  </si>
-  <si>
     <t xml:space="preserve">On a Mission </t>
   </si>
   <si>
@@ -3509,9 +3736,6 @@
     <t>Windows</t>
   </si>
   <si>
-    <t>James Briggs</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
@@ -3533,6 +3757,9 @@
     <t>The AI Breakdown: Artificial Intelligence News</t>
   </si>
   <si>
+    <t>Foreign Affairs</t>
+  </si>
+  <si>
     <t>Simon Sinek</t>
   </si>
   <si>
@@ -3569,9 +3796,6 @@
     <t>Backstage with Millionaires</t>
   </si>
   <si>
-    <t>The Diary Of A CEO</t>
-  </si>
-  <si>
     <t>Tom Bilyeu</t>
   </si>
   <si>
@@ -3620,9 +3844,21 @@
     <t>Kurzgesagt – In a Nutshell</t>
   </si>
   <si>
+    <t>Self Motivate</t>
+  </si>
+  <si>
     <t>Neuralink</t>
   </si>
   <si>
+    <t>2023-10-02T07:00:13Z</t>
+  </si>
+  <si>
+    <t>2023-09-30T13:00:45Z</t>
+  </si>
+  <si>
+    <t>2023-09-29T21:30:53Z</t>
+  </si>
+  <si>
     <t>2023-09-28T17:35:52Z</t>
   </si>
   <si>
@@ -3683,6 +3919,9 @@
     <t>2023-09-12T18:24:47Z</t>
   </si>
   <si>
+    <t>2023-09-12T16:05:33Z</t>
+  </si>
+  <si>
     <t>2023-09-08T16:00:13Z</t>
   </si>
   <si>
@@ -3843,6 +4082,9 @@
   </si>
   <si>
     <t>2021-11-19T18:26:03Z</t>
+  </si>
+  <si>
+    <t>2021-08-25T01:00:14Z</t>
   </si>
   <si>
     <t>2021-08-10T13:59:41Z</t>
@@ -4279,7 +4521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4313,68 +4555,68 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4382,22 +4624,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4405,45 +4647,45 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="G7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4451,160 +4693,160 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="G8" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G13" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="G14" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4612,68 +4854,68 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G15" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4681,22 +4923,22 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G18" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4704,45 +4946,45 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="G19" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4750,22 +4992,22 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G21" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4773,68 +5015,68 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G23" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4842,22 +5084,22 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4865,68 +5107,68 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="G26" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="G27" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G28" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4934,22 +5176,22 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F29" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G29" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4957,68 +5199,68 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="G30" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G31" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F32" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5026,22 +5268,22 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G33" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5049,22 +5291,22 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5072,22 +5314,22 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5095,22 +5337,22 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5118,68 +5360,68 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="G37" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5187,22 +5429,22 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5210,22 +5452,22 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5233,45 +5475,45 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G42" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5279,45 +5521,45 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5325,22 +5567,22 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5348,22 +5590,22 @@
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="G47" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5371,45 +5613,45 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="G48" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G49" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5417,68 +5659,68 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="G50" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F51" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="G51" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G52" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5486,45 +5728,45 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="G53" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="G54" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5532,45 +5774,45 @@
         <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="G55" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F56" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G56" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5578,22 +5820,22 @@
         <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F57" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="G57" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5601,22 +5843,22 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G58" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5624,91 +5866,91 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G59" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="G60" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="G61" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G62" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5716,22 +5958,22 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F63" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="G63" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5739,275 +5981,275 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G64" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F65" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="G65" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G66" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G67" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F68" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G68" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F69" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="G69" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G70" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="G71" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E72" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="G72" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F73" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G73" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E74" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F74" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G74" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="G75" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6015,91 +6257,91 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="G76" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G77" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G78" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G79" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6107,413 +6349,528 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="G80" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G81" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F82" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="G82" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G83" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G84" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F85" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G85" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G86" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F87" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G87" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F88" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G88" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G89" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F90" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G90" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G91" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F92" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G92" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D93" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G93" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F94" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G94" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G95" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F96" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G96" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E97" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F97" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G97" t="s">
-        <v>438</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" t="s">
+        <v>313</v>
+      </c>
+      <c r="F98" t="s">
+        <v>360</v>
+      </c>
+      <c r="G98" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E99" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" t="s">
+        <v>360</v>
+      </c>
+      <c r="G99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" t="s">
+        <v>315</v>
+      </c>
+      <c r="F100" t="s">
+        <v>360</v>
+      </c>
+      <c r="G100" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s">
+        <v>316</v>
+      </c>
+      <c r="F101" t="s">
+        <v>360</v>
+      </c>
+      <c r="G101" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" t="s">
+        <v>317</v>
+      </c>
+      <c r="F102" t="s">
+        <v>360</v>
+      </c>
+      <c r="G102" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6614,6 +6971,11 @@
     <hyperlink ref="B95" r:id="rId94"/>
     <hyperlink ref="B96" r:id="rId95"/>
     <hyperlink ref="B97" r:id="rId96"/>
+    <hyperlink ref="B98" r:id="rId97"/>
+    <hyperlink ref="B99" r:id="rId98"/>
+    <hyperlink ref="B100" r:id="rId99"/>
+    <hyperlink ref="B101" r:id="rId100"/>
+    <hyperlink ref="B102" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="480">
   <si>
     <t>Category</t>
   </si>
@@ -37,15 +37,15 @@
     <t>Publish time</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
     <t>Informative Talk</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -58,6 +58,12 @@
     <t>Story</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=GZdytTKeGYM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vU2S6dVf79M</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=KRxhnSkgxtk</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>https://www.youtube.com/watch?v=itY6VWpdECc</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=l5WybwqCZic</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=JyVH4FbSwFo</t>
   </si>
   <si>
@@ -364,6 +373,12 @@
     <t>-</t>
   </si>
   <si>
+    <t>RT-X and the Dawn of Large Multimodal Models: Google Breakthrough and 160-page Report Highlights</t>
+  </si>
+  <si>
+    <t>AutoGen Tutorial 🚀 Create Custom AI Agents EASILY (Incredible)</t>
+  </si>
+  <si>
     <t>“It’s An Emergency!” The Number Of Men Having No Sex Increased 180%! - Professor Scott Galloway</t>
   </si>
   <si>
@@ -526,6 +541,9 @@
     <t>MEGATHREAT: Why AI Is So Dangerous &amp; How It Could Destroy Humanity | Mo Gawdat</t>
   </si>
   <si>
+    <t>Unlock The Secrets Of Your Mind, Boost Productivity &amp; Reduce Stress! - Yung Pueblo | E255</t>
+  </si>
+  <si>
     <t>GPT-5 Presents EXTREME RISK (Google's New Warning)</t>
   </si>
   <si>
@@ -665,6 +683,37 @@
   </si>
   <si>
     <t>Eigenvectors and eigenvalues | Chapter 14, Essence of linear algebra</t>
+  </si>
+  <si>
+    <t>A huge new insider report on GPT Vision is released by Microsoft and just in the last few hours the RT-X series is dropped by Google in Robotics. I will not only break down the 160+ page report on what GPT-4V can do and what it can't, including new use cases, prompting techniques and failure modes, I'll also go through the full RT-2-X and RT-1-X demo, which I am calling the GPT2 moment for robotics. Plus its huge new opensource Open X-Embodiment dataset.
+https://www.patreon.com/AIExplained
+RT-X Series: Paper: https://storage.googleapis.com/deepmind-media/DeepMind.com/Blog/scaling-up-learning-across-many-different-robot-types/Open_X_Embodiment__Robotic_Learning_Datasets_and_RT_X_Models.pdf
+Blog: https://www.deepmind.com/blog/scaling-up-learning-across-many-different-robot-types?
+Github: https://robotics-transformer-x.github.io/
+utm_source=twitter&amp;utm_medium=social&amp;utm_campaign=RT-X
+The Dawn of LLMS: https://arxiv.org/abs/2309.17421
+GPT 4 vs Pali 17B: https://openai.com/research/gpt-4
+GPT V Inception: https://twitter.com/markchen90/status/1708867434491380057/photo/1
+PaLI-X: https://arxiv.org/pdf/2305.18565.pdf
+PromptBreeder: https://arxiv.org/pdf/2309.16797.pdf
+Wozniak Definition: https://en.wikipedia.org/wiki/Artificial_general_intelligence
+Gobi from The Information: https://www.theinformation.com/articles/openai-hustles-to-beat-google-to-launch-multimodal-llm?rc=sy0ihq
+https://www.patreon.com/AIExplained</t>
+  </si>
+  <si>
+    <t>In this video, I show you how to use AutoGen, which allows anyone to use multi-agent LLMs to power their applications. First, I give an overview of what AutoGen is, and then I show you how to use it with two examples. 
+Currently, AutoGen works with OpenAI's API, but they are already working on adding local models natively, and you can already do it through LiteLLM with a proxy server.
+Enjoy :) 
+Become a Patron 🔥 - https://patreon.com/MatthewBerman
+Join the Discord 💬 - https://discord.gg/xxysSXBxFW
+Follow me on Twitter 🧠 - https://twitter.com/matthewberman
+Follow me on TikTok 👋 - https://www.tiktok.com/@matthewberman60
+Subscribe to my Substack 🗞️ - https://matthewberman.substack.com
+Media/Sponsorship Inquiries 📈 - https://bit.ly/44TC45V
+Links:
+https://www.microsoft.com/en-us/research/blog/autogen-enabling-next-generation-large-language-model-applications/
+https://github.com/microsoft/autogen
+https://microsoft.github.io/autogen/docs/Examples/AutoGen-AgentChat/</t>
   </si>
   <si>
     <t>If you enjoyed this video, you can listen to my first conversation with Scott, here: https://www.youtube.com/watch?v=vHpZEMesriU
@@ -804,27 +853,27 @@
 25:50 Final Thoughts</t>
   </si>
   <si>
-    <t>Much of the conversation about AI these days is focused on cutting-edge technologies, like generative AI, and the potential risks these technologies could pose to society. At the same time, AI is one of our most powerful tools when it comes to addressing the biggest challenges we face in the areas of climate change, public health, and disaster management. AI has already been deployed as a key component of many real-world applications that are having a positive impact on things like making renewable energy sources a more viable alternative to fossil fuels, providing access to reliable information in more of the world’s languages, and allowing for more effective planning, logistics, and resource allocation in the event of a disaster._x000D_
-_x000D_
-Join in on our panel of experts with Andrew Ng, Robert Monarch, Juan Lavista Ferres, and Iva Gumnishka to learn more about how AI is impacting the world in a positive way._x000D_
-_x000D_
+    <t>Much of the conversation about AI these days is focused on cutting-edge technologies, like generative AI, and the potential risks these technologies could pose to society. At the same time, AI is one of our most powerful tools when it comes to addressing the biggest challenges we face in the areas of climate change, public health, and disaster management. AI has already been deployed as a key component of many real-world applications that are having a positive impact on things like making renewable energy sources a more viable alternative to fossil fuels, providing access to reliable information in more of the world’s languages, and allowing for more effective planning, logistics, and resource allocation in the event of a disaster._x005F_x000D_
+_x005F_x000D_
+Join in on our panel of experts with Andrew Ng, Robert Monarch, Juan Lavista Ferres, and Iva Gumnishka to learn more about how AI is impacting the world in a positive way._x005F_x000D_
+_x005F_x000D_
 This event is inspired by DeepLearning.AI’s specialization, AI For Good, created in collaboration with Microsoft’s AI For Good lab and instructor Robert Monarch, who has developed AI systems for public health and disaster response efforts around the world.
 Please take a moment to register for our AI For Good course here: 
 https://bit.ly/3ZwZEUQ
 To learn more about us and signup for future events:
-DeepLearning.AI: https://www.deeplearning.ai/_x000D_
-_x000D_
-Speakers:_x000D_
-_x000D_
+DeepLearning.AI: https://www.deeplearning.ai/_x005F_x000D_
+_x005F_x000D_
+Speakers:_x005F_x000D_
+_x005F_x000D_
 Andrew Ng, Founder of DeepLearning.AI
-https://www.linkedin.com/in/andrewyng/_x000D_
-_x000D_
+https://www.linkedin.com/in/andrewyng/_x005F_x000D_
+_x005F_x000D_
 Robert Monarch, Instructor for AI for Good Specialization
 https://www.linkedin.com/in/robertjmunro/
-_x000D_
+_x005F_x000D_
 Juan Lavista Ferres, Vice President and Chief Data Scientist of the Microsoft AI for Good Lab 
-https://www.linkedin.com/in/jlavista/_x000D_
-_x000D_
+https://www.linkedin.com/in/jlavista/_x005F_x000D_
+_x005F_x000D_
 Iva Gumnishka, Founder of Humans in the Loop
 https://www.linkedin.com/in/ivagumnishka/</t>
   </si>
@@ -948,14 +997,14 @@
 57:53 - 58:52  Conclusion
 Learn more: https://blogs.microsoft.com/blog/2023/09/21/announcing-microsoft-copilot-your-everyday-ai-companion/
 #MicrosoftEvent
-Subscribe to Microsoft on YouTube here: https://aka.ms/SubscribeToYouTube_x000D_
-_x000D_
-Follow us on social: _x000D_
-LinkedIn: https://www.linkedin.com/company/microsoft/ _x000D_
-Twitter: https://twitter.com/Microsoft_x000D_
-Facebook: https://www.facebook.com/Microsoft/ _x000D_
-Instagram: https://www.instagram.com/microsoft/ _x000D_
- _x000D_
+Subscribe to Microsoft on YouTube here: https://aka.ms/SubscribeToYouTube_x005F_x000D_
+_x005F_x000D_
+Follow us on social: _x005F_x000D_
+LinkedIn: https://www.linkedin.com/company/microsoft/ _x005F_x000D_
+Twitter: https://twitter.com/Microsoft_x005F_x000D_
+Facebook: https://www.facebook.com/Microsoft/ _x005F_x000D_
+Instagram: https://www.instagram.com/microsoft/ _x005F_x000D_
+ _x005F_x000D_
 For more about Microsoft, our technology, and our mission, visit https://aka.ms/microsoftstories</t>
   </si>
   <si>
@@ -993,9 +1042,9 @@
   </si>
   <si>
     <t>Learn how Bard can help you do more with the Google apps and services you use every day — like Maps, YouTube, Gmail and more.
-Subscribe to our Channel: https://www.youtube.com/google_x005F_x000D_
-Tweet with us on Twitter: https://twitter.com/google_x005F_x000D_
-Follow us on Instagram: https://www.instagram.com/google_x005F_x000D_
+Subscribe to our Channel: https://www.youtube.com/google_x000D_
+Tweet with us on Twitter: https://twitter.com/google_x000D_
+Follow us on Instagram: https://www.instagram.com/google_x000D_
 Join us on Facebook: https://www.facebook.com/Google</t>
   </si>
   <si>
@@ -1997,6 +2046,47 @@
 YouTube: https://www.youtube.com/channel/UCilMYYyoot7vhLn4Tinzmmg 
 Twitter: https://twitter.com/mgawdat 
 Instagram: https://www.instagram.com/mo_gawdat/</t>
+  </si>
+  <si>
+    <t>In this new episode Steven sits down with the poet and philosopher Diego Perez, also known as Yung Pueblo.
+0:00 Intro 
+02:02 What mission are you on?
+04:30 Your own healing journey
+06:55 Your first step in healing
+12:51 We need to ask ourselves how we feel more 
+16:44 Mediation
+19:04 How do we get people ok with change?
+28:25 What does mediation look like for you?
+30:26 How often do you meditate?
+32:43 How to meditate
+38:19 Why should we be meditating? 
+42:50 How to understand suffering
+47:21 Why do you keep going?
+57:18 What do you look for in a partner?
+59:55 The route cause of challenges in you relationship
+01:05:36 The current world of dating
+01:14:56 We’re all addicted to distraction, here’s how to get out of it
+01:18:33 The importance of moving more slowly
+01:20:02 Why you need to develop self love
+01:22:28 A closing message to the world
+01:23:33 how do you manage your time 
+01:28:56 The last guest’s question
+You can purchase Diego’s newest book ‘Lighter’, here: https://amzn.to/3NgXOD7
+Follow Diego:
+Instagram: https://bit.ly/42wAGVx
+Twitter: https://twitter.com/YungPueblo
+My new book! 'The 33 Laws Of Business &amp; Life' per order link: https://smarturl.it/DOACbook
+Join this channel to get access to perks:
+https://bit.ly/3Dpmgx5
+Follow me: 
+Instagram: http://bit.ly/3nIkGAZ
+Twitter: http://bit.ly/3ztHuHm
+Linkedin: https://bit.ly/41Fl95Q
+Telegram: http://bit.ly/3nJYxST
+Sponsors: 
+Whoop http://bit.ly/3MbapaY
+Huel: https://g2ul0.app.link/G4RjcdKNKsb
+Blue jeans: https://g2ul0.app.link/NCgpGjVNKsb</t>
   </si>
   <si>
     <t>Abrupt Emergence Capabilities - https://arxiv.org/pdf/2202.07785.pdf
@@ -3049,8 +3139,8 @@
 Help fund future projects: https://www.patreon.com/3blue1brown
 An equally valuable form of support is to simply share some of the videos.
 Special thanks to these supporters: http://3b1b.co/sir-thanks
-Home page: https://www.3blue1brown.com_x005F_x000D_
-_x005F_x000D_
+Home page: https://www.3blue1brown.com_x000D_
+_x000D_
 Awesome fan-made interactives:
 https://prajwalsouza.github.io/Experiments/Epidemic-Simulation.html
 https://learningsim.itch.io/pandemic-spread-simulation
@@ -3066,9 +3156,9 @@
 https://youtu.be/MZ957qhzcjI
 Marcel Salathé on Contact Tracing:
 https://twitter.com/marcelsalathe/status/1242430736944201730
-------------------_x005F_x000D_
-_x005F_x000D_
-These animations are made using manim, a scrappy open-source python library:  https://github.com/3b1b/manim_x005F_x000D_
+------------------_x000D_
+_x000D_
+These animations are made using manim, a scrappy open-source python library:  https://github.com/3b1b/manim_x000D_
 Code for this video:
 https://github.com/3b1b/videos/blob/master/_2020/sir.py
 Honestly, given that the code for that video is meant for demo purposes, and not meant to reflect the true data of COVID-19, if you want to apply these ideas to the current situation I'd recommend looking for more professional epidemiological modeling tools that are less centered around animations and pedagogy and more focused on accurate predictions.  For example, the Institute for Disease Modeling has a lot of models free for people to look at and play with.
@@ -3077,25 +3167,25 @@
 Candlepower by Chris Zabriskie is licensed under a Creative Commons Attribution license (https://creativecommons.org/licenses/by/4.0/)
 Source: http://chriszabriskie.com/divider/
 Artist: http://chriszabriskie.com/
-Other music by Vincent Rubinetti._x005F_x000D_
-Download the music on Bandcamp:_x005F_x000D_
-https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x005F_x000D_
-_x005F_x000D_
-Stream the music on Spotify:_x005F_x000D_
-https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x005F_x000D_
-_x005F_x000D_
-If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x005F_x000D_
-_x005F_x000D_
-------------------_x005F_x000D_
-_x005F_x000D_
-3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x005F_x000D_
-_x005F_x000D_
-Various social media stuffs:_x005F_x000D_
-Website: https://www.3blue1brown.com_x005F_x000D_
-Twitter: https://twitter.com/3blue1brown_x005F_x000D_
-Reddit: https://www.reddit.com/r/3blue1brown_x005F_x000D_
-Instagram: https://www.instagram.com/3blue1brown_animations/_x005F_x000D_
-Patreon: https://patreon.com/3blue1brown_x005F_x000D_
+Other music by Vincent Rubinetti._x000D_
+Download the music on Bandcamp:_x000D_
+https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x000D_
+_x000D_
+Stream the music on Spotify:_x000D_
+https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x000D_
+_x000D_
+If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x000D_
+_x000D_
+------------------_x000D_
+_x000D_
+3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x000D_
+_x000D_
+Various social media stuffs:_x000D_
+Website: https://www.3blue1brown.com_x000D_
+Twitter: https://twitter.com/3blue1brown_x000D_
+Reddit: https://www.reddit.com/r/3blue1brown_x000D_
+Instagram: https://www.instagram.com/3blue1brown_animations/_x000D_
+Patreon: https://patreon.com/3blue1brown_x000D_
 Facebook: https://www.facebook.com/3blue1brown</t>
   </si>
   <si>
@@ -3706,6 +3796,12 @@
 Reddit: https://www.reddit.com/r/3Blue1Brown</t>
   </si>
   <si>
+    <t>AI Explained</t>
+  </si>
+  <si>
+    <t>Matthew Berman</t>
+  </si>
+  <si>
     <t>The Diary Of A CEO</t>
   </si>
   <si>
@@ -3763,9 +3859,6 @@
     <t>Simon Sinek</t>
   </si>
   <si>
-    <t>Matthew Berman</t>
-  </si>
-  <si>
     <t>Ticker Symbol: YOU</t>
   </si>
   <si>
@@ -3850,6 +3943,12 @@
     <t>Neuralink</t>
   </si>
   <si>
+    <t>2023-10-03T21:52:21Z</t>
+  </si>
+  <si>
+    <t>2023-10-03T14:23:06Z</t>
+  </si>
+  <si>
     <t>2023-10-02T07:00:13Z</t>
   </si>
   <si>
@@ -4010,6 +4109,9 @@
   </si>
   <si>
     <t>2023-06-20T13:00:27Z</t>
+  </si>
+  <si>
+    <t>2023-06-12T07:00:17Z</t>
   </si>
   <si>
     <t>2023-06-10T16:15:02Z</t>
@@ -4521,7 +4623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4558,19 +4660,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4581,134 +4683,134 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G5" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G8" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4719,19 +4821,19 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4742,88 +4844,88 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4834,65 +4936,65 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G16" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4903,19 +5005,19 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G17" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4926,19 +5028,19 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G18" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4949,19 +5051,19 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4972,42 +5074,42 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G21" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5018,226 +5120,226 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G24" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G26" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G27" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="G28" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F29" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G29" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G30" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F31" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G31" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5248,42 +5350,42 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G32" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G33" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5294,88 +5396,88 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F37" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5386,19 +5488,19 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5409,19 +5511,19 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5432,19 +5534,19 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5455,42 +5557,42 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="G42" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5501,88 +5603,88 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="G43" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5593,42 +5695,42 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G47" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G48" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5639,65 +5741,65 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F49" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G49" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F50" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G50" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5708,19 +5810,19 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G52" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5731,134 +5833,134 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G53" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G54" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F56" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G56" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G57" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5869,180 +5971,180 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F59" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="G59" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F60" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G60" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F61" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G61" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F62" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G62" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F63" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="G63" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F64" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G64" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F65" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G65" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F66" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G66" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6053,203 +6155,203 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F67" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="G68" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F69" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="G69" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G70" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F71" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="G71" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="G72" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F73" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G73" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G74" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G75" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6260,65 +6362,65 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F76" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="G76" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G77" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G78" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6329,19 +6431,19 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="G79" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6352,65 +6454,65 @@
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F80" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G80" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E81" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G81" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E82" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F82" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G82" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6421,456 +6523,525 @@
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F83" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="G83" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E84" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F84" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G84" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F85" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G85" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G86" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F87" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G87" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G88" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F89" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G89" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G90" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F91" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G91" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F92" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G92" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F93" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G93" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F94" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G94" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F95" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G95" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E96" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F96" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G96" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E97" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F97" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G97" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E98" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F98" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G98" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E99" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F99" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G99" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F100" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G100" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F101" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G101" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" t="s">
+        <v>323</v>
+      </c>
+      <c r="F102" t="s">
+        <v>370</v>
+      </c>
+      <c r="G102" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D102" t="s">
-        <v>216</v>
-      </c>
-      <c r="E102" t="s">
-        <v>317</v>
-      </c>
-      <c r="F102" t="s">
-        <v>360</v>
-      </c>
-      <c r="G102" t="s">
-        <v>466</v>
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" t="s">
+        <v>324</v>
+      </c>
+      <c r="F103" t="s">
+        <v>370</v>
+      </c>
+      <c r="G103" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>325</v>
+      </c>
+      <c r="F104" t="s">
+        <v>370</v>
+      </c>
+      <c r="G104" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105" t="s">
+        <v>326</v>
+      </c>
+      <c r="F105" t="s">
+        <v>370</v>
+      </c>
+      <c r="G105" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6976,6 +7147,9 @@
     <hyperlink ref="B100" r:id="rId99"/>
     <hyperlink ref="B101" r:id="rId100"/>
     <hyperlink ref="B102" r:id="rId101"/>
+    <hyperlink ref="B103" r:id="rId102"/>
+    <hyperlink ref="B104" r:id="rId103"/>
+    <hyperlink ref="B105" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="485">
   <si>
     <t>Category</t>
   </si>
@@ -199,6 +199,9 @@
     <t>https://www.youtube.com/watch?v=tCCF3LwiHu8</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=LhX25V3cc2E</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=1WOjjgyZPj8</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>Who Is Leading the inevitable AI Revolution? w/ Mo Gawdat</t>
+  </si>
+  <si>
+    <t>Azure OpenAI - Chat with Your Own Data</t>
   </si>
   <si>
     <t>The Most Likely Outcomes of an AI Future with Emad Mostaque | EP #55</t>
@@ -1042,9 +1048,9 @@
   </si>
   <si>
     <t>Learn how Bard can help you do more with the Google apps and services you use every day — like Maps, YouTube, Gmail and more.
-Subscribe to our Channel: https://www.youtube.com/google_x000D_
-Tweet with us on Twitter: https://twitter.com/google_x000D_
-Follow us on Instagram: https://www.instagram.com/google_x000D_
+Subscribe to our Channel: https://www.youtube.com/google_x005F_x000D_
+Tweet with us on Twitter: https://twitter.com/google_x005F_x000D_
+Follow us on Instagram: https://www.instagram.com/google_x005F_x000D_
 Join us on Facebook: https://www.facebook.com/Google</t>
   </si>
   <si>
@@ -1772,6 +1778,38 @@
 Listen to the show:
 Apple: https://apple.co/3wLXeV3
 Spotify: https://spoti.fi/3DwLzgs</t>
+  </si>
+  <si>
+    <t>Welcome to the forth video in my Azure OpenAI Service series! In this video, we're going to look at Add your data functionality. 
+00:00 - Intro
+00:30 - Configuration
+01:28 - Storage Account and Cognitive Search
+02:26 - Why Cognitive Search?
+03:01 - Retrieval Augmented Generation (RAG)
+05:16 - Cognitive Search Indexes
+05:46 - Cognitive Search Pricing
+06:51 - Testing the Bot
+08:34 - Publishing the Bot
+09:29 - App Service Authentication
+09:56 - Walkaround Azure Cognitive Search
+10:59 - File changes and Re-indexing
+#AzureOpenAIService #BringYourOwnData #RetrievalAugmentedGeneration
+Script for creating storage account
+$grp = "rg-azure-search-indexers"
+$loc = "eastus"
+$storageAccountName = 'stazureoaidemo10010'
+$searchName = "aci-azure-oai-demo-10010"
+az group create --name $grp `
+                --location $loc
+az storage account create --name $storageAccountName `
+                          --resource-group $grp `
+                          --location $loc
+az search service create --name $searchName `
+                         --resource-group $grp `
+                         --sku Basic `
+                         --location $loc
+Custom Demo - https://github.com/Azure-Samples/azure-search-openai-demo
+🔔 Don't forget to like, subscribe, and hit the notification bell to stay updated with the latest videos in the Azure OpenAI Service series!</t>
   </si>
   <si>
     <t>This episode is supported by exceptional companies:
@@ -2421,51 +2459,51 @@
 02:03:34 Close</t>
   </si>
   <si>
-    <t>Time: the most familiar, and most mysterious quality of the physical universe. Theoretical physicist Brian Greene, PhD, has been challenged to explain the nature of time to 5 different people; a child, a teen, a college student, a grad student, and an expert. _x000D_
-_x000D_
-Director: Maya Dangerfield_x000D_
-Producer: Wendi Jonassen_x000D_
-Field Producer: Katherine Wzorek_x000D_
-Director of Photography: Charlie Jordan_x000D_
-Editor: Shandor Garrison_x000D_
-Host: Brian Greene_x000D_
-Level 1: Kayla Martini_x000D_
-Level 2: Maria Guseva_x000D_
-Level 3: Zain Kamal_x000D_
-Level 4: Alexander Novara_x000D_
-Level 5: Massimo Porrati_x000D_
-_x000D_
-Line Producer: Joseph Buscemi _x000D_
-Associate Producer: Paul Gulyas_x000D_
-Production Manager: Eric Martinez   _x000D_
-Production Coordinator: Fernando Davila_x000D_
-Casting Producer: Nick Sawyer_x000D_
-_x000D_
-Camera Operator: Britney Berger_x000D_
-Gaffer: Gautam Kadian_x000D_
-Audio: Brett Van Deusen_x000D_
-Production Assistant: Nicole Gaitan_x000D_
-Hair/Makeup Artist: Yev Write-Mason _x000D_
-_x000D_
-Post Production Supervisor: Alexa Deutsch _x000D_
-Post Production Coordinator: Ian Bryant  _x000D_
-Supervising Editor: Doug Larsen_x000D_
+    <t>Time: the most familiar, and most mysterious quality of the physical universe. Theoretical physicist Brian Greene, PhD, has been challenged to explain the nature of time to 5 different people; a child, a teen, a college student, a grad student, and an expert. _x005F_x000D_
+_x005F_x000D_
+Director: Maya Dangerfield_x005F_x000D_
+Producer: Wendi Jonassen_x005F_x000D_
+Field Producer: Katherine Wzorek_x005F_x000D_
+Director of Photography: Charlie Jordan_x005F_x000D_
+Editor: Shandor Garrison_x005F_x000D_
+Host: Brian Greene_x005F_x000D_
+Level 1: Kayla Martini_x005F_x000D_
+Level 2: Maria Guseva_x005F_x000D_
+Level 3: Zain Kamal_x005F_x000D_
+Level 4: Alexander Novara_x005F_x000D_
+Level 5: Massimo Porrati_x005F_x000D_
+_x005F_x000D_
+Line Producer: Joseph Buscemi _x005F_x000D_
+Associate Producer: Paul Gulyas_x005F_x000D_
+Production Manager: Eric Martinez   _x005F_x000D_
+Production Coordinator: Fernando Davila_x005F_x000D_
+Casting Producer: Nick Sawyer_x005F_x000D_
+_x005F_x000D_
+Camera Operator: Britney Berger_x005F_x000D_
+Gaffer: Gautam Kadian_x005F_x000D_
+Audio: Brett Van Deusen_x005F_x000D_
+Production Assistant: Nicole Gaitan_x005F_x000D_
+Hair/Makeup Artist: Yev Write-Mason _x005F_x000D_
+_x005F_x000D_
+Post Production Supervisor: Alexa Deutsch _x005F_x000D_
+Post Production Coordinator: Ian Bryant  _x005F_x000D_
+Supervising Editor: Doug Larsen_x005F_x000D_
 Assistant Editor: Andy Morell
-Still haven’t subscribed to WIRED on YouTube? ►► http://wrd.cm/15fP7B7 _x000D_
-Listen to the Get WIRED podcast  ►► https://link.chtbl.com/wired-ytc-desc_x000D_
-Want more WIRED? Get the magazine ►► https://subscribe.wired.com/subscribe/splits/wired/WIR_YouTube?source=EDT_WIR_YouTube_0_Video_Description_ZZ_x000D_
-_x000D_
-Follow WIRED:_x000D_
-_x000D_
-Instagram ►►https://instagram.com/wired_x000D_
-Twitter ►►http://www.twitter.com/wired_x000D_
-Facebook ►►https://www.facebook.com/wired_x000D_
-_x000D_
-Get more incredible stories on science and tech with our daily newsletter: https://wrd.cm/DailyYT_x000D_
-_x000D_
-Also, check out the free WIRED channel on Roku, Apple TV, Amazon Fire TV, and Android TV. _x000D_
-_x000D_
-ABOUT WIRED_x000D_
+Still haven’t subscribed to WIRED on YouTube? ►► http://wrd.cm/15fP7B7 _x005F_x000D_
+Listen to the Get WIRED podcast  ►► https://link.chtbl.com/wired-ytc-desc_x005F_x000D_
+Want more WIRED? Get the magazine ►► https://subscribe.wired.com/subscribe/splits/wired/WIR_YouTube?source=EDT_WIR_YouTube_0_Video_Description_ZZ_x005F_x000D_
+_x005F_x000D_
+Follow WIRED:_x005F_x000D_
+_x005F_x000D_
+Instagram ►►https://instagram.com/wired_x005F_x000D_
+Twitter ►►http://www.twitter.com/wired_x005F_x000D_
+Facebook ►►https://www.facebook.com/wired_x005F_x000D_
+_x005F_x000D_
+Get more incredible stories on science and tech with our daily newsletter: https://wrd.cm/DailyYT_x005F_x000D_
+_x005F_x000D_
+Also, check out the free WIRED channel on Roku, Apple TV, Amazon Fire TV, and Android TV. _x005F_x000D_
+_x005F_x000D_
+ABOUT WIRED_x005F_x000D_
 WIRED is where tomorrow is realized. Through thought-provoking stories and videos, WIRED explores the future of business, innovation, and culture.</t>
   </si>
   <si>
@@ -2972,31 +3010,31 @@
 5:53 - The Bayes factor
 11:00 - The snazzy Bayes rule
 14:42 - Contrast with the usual formula
-------------------_x000D_
-_x000D_
-These animations are largely made using manim, a scrappy open source python library:  https://github.com/3b1b/manim_x000D_
-_x000D_
-If you want to check it out, I feel compelled to warn you that it's not the most well-documented tool, and it has many other quirks you might expect in a library someone wrote with only their own use in mind._x000D_
-_x000D_
-Music by Vincent Rubinetti._x000D_
-Download the music on Bandcamp:_x000D_
-https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x000D_
-_x000D_
-Stream the music on Spotify:_x000D_
-https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x000D_
-_x000D_
-If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x000D_
-_x000D_
-------------------_x000D_
-_x000D_
-3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x000D_
-_x000D_
-Various social media stuffs:_x000D_
-Website: https://www.3blue1brown.com_x000D_
-Twitter: https://twitter.com/3blue1brown_x000D_
-Reddit: https://www.reddit.com/r/3blue1brown_x000D_
-Instagram: https://www.instagram.com/3blue1brown_animations/_x000D_
-Patreon: https://patreon.com/3blue1brown_x000D_
+------------------_x005F_x000D_
+_x005F_x000D_
+These animations are largely made using manim, a scrappy open source python library:  https://github.com/3b1b/manim_x005F_x000D_
+_x005F_x000D_
+If you want to check it out, I feel compelled to warn you that it's not the most well-documented tool, and it has many other quirks you might expect in a library someone wrote with only their own use in mind._x005F_x000D_
+_x005F_x000D_
+Music by Vincent Rubinetti._x005F_x000D_
+Download the music on Bandcamp:_x005F_x000D_
+https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x005F_x000D_
+_x005F_x000D_
+Stream the music on Spotify:_x005F_x000D_
+https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x005F_x000D_
+_x005F_x000D_
+If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x005F_x000D_
+_x005F_x000D_
+------------------_x005F_x000D_
+_x005F_x000D_
+3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x005F_x000D_
+_x005F_x000D_
+Various social media stuffs:_x005F_x000D_
+Website: https://www.3blue1brown.com_x005F_x000D_
+Twitter: https://twitter.com/3blue1brown_x005F_x000D_
+Reddit: https://www.reddit.com/r/3blue1brown_x005F_x000D_
+Instagram: https://www.instagram.com/3blue1brown_animations/_x005F_x000D_
+Patreon: https://patreon.com/3blue1brown_x005F_x000D_
 Facebook: https://www.facebook.com/3blue1brown</t>
   </si>
   <si>
@@ -3139,8 +3177,8 @@
 Help fund future projects: https://www.patreon.com/3blue1brown
 An equally valuable form of support is to simply share some of the videos.
 Special thanks to these supporters: http://3b1b.co/sir-thanks
-Home page: https://www.3blue1brown.com_x000D_
-_x000D_
+Home page: https://www.3blue1brown.com_x005F_x000D_
+_x005F_x000D_
 Awesome fan-made interactives:
 https://prajwalsouza.github.io/Experiments/Epidemic-Simulation.html
 https://learningsim.itch.io/pandemic-spread-simulation
@@ -3156,9 +3194,9 @@
 https://youtu.be/MZ957qhzcjI
 Marcel Salathé on Contact Tracing:
 https://twitter.com/marcelsalathe/status/1242430736944201730
-------------------_x000D_
-_x000D_
-These animations are made using manim, a scrappy open-source python library:  https://github.com/3b1b/manim_x000D_
+------------------_x005F_x000D_
+_x005F_x000D_
+These animations are made using manim, a scrappy open-source python library:  https://github.com/3b1b/manim_x005F_x000D_
 Code for this video:
 https://github.com/3b1b/videos/blob/master/_2020/sir.py
 Honestly, given that the code for that video is meant for demo purposes, and not meant to reflect the true data of COVID-19, if you want to apply these ideas to the current situation I'd recommend looking for more professional epidemiological modeling tools that are less centered around animations and pedagogy and more focused on accurate predictions.  For example, the Institute for Disease Modeling has a lot of models free for people to look at and play with.
@@ -3167,25 +3205,25 @@
 Candlepower by Chris Zabriskie is licensed under a Creative Commons Attribution license (https://creativecommons.org/licenses/by/4.0/)
 Source: http://chriszabriskie.com/divider/
 Artist: http://chriszabriskie.com/
-Other music by Vincent Rubinetti._x000D_
-Download the music on Bandcamp:_x000D_
-https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x000D_
-_x000D_
-Stream the music on Spotify:_x000D_
-https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x000D_
-_x000D_
-If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x000D_
-_x000D_
-------------------_x000D_
-_x000D_
-3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x000D_
-_x000D_
-Various social media stuffs:_x000D_
-Website: https://www.3blue1brown.com_x000D_
-Twitter: https://twitter.com/3blue1brown_x000D_
-Reddit: https://www.reddit.com/r/3blue1brown_x000D_
-Instagram: https://www.instagram.com/3blue1brown_animations/_x000D_
-Patreon: https://patreon.com/3blue1brown_x000D_
+Other music by Vincent Rubinetti._x005F_x000D_
+Download the music on Bandcamp:_x005F_x000D_
+https://vincerubinetti.bandcamp.com/album/the-music-of-3blue1brown_x005F_x000D_
+_x005F_x000D_
+Stream the music on Spotify:_x005F_x000D_
+https://open.spotify.com/album/1dVyjwS8FBqXhRunaG5W5u_x005F_x000D_
+_x005F_x000D_
+If you want to contribute translated subtitles or to help review those that have already been made by others and need approval, you can click the gear icon in the video and go to subtitles/cc, then "add subtitles/cc".  I really appreciate those who do this, as it helps make the lessons accessible to more people._x005F_x000D_
+_x005F_x000D_
+------------------_x005F_x000D_
+_x005F_x000D_
+3blue1brown is a channel about animating math, in all senses of the word animate.  And you know the drill with YouTube, if you want to stay posted on new videos, subscribe: http://3b1b.co/subscribe_x005F_x000D_
+_x005F_x000D_
+Various social media stuffs:_x005F_x000D_
+Website: https://www.3blue1brown.com_x005F_x000D_
+Twitter: https://twitter.com/3blue1brown_x005F_x000D_
+Reddit: https://www.reddit.com/r/3blue1brown_x005F_x000D_
+Instagram: https://www.instagram.com/3blue1brown_animations/_x005F_x000D_
+Patreon: https://patreon.com/3blue1brown_x005F_x000D_
 Facebook: https://www.facebook.com/3blue1brown</t>
   </si>
   <si>
@@ -3895,6 +3933,9 @@
     <t>Peter H. Diamandis</t>
   </si>
   <si>
+    <t>Meet Kamal Today - Cloud Mastery</t>
+  </si>
+  <si>
     <t>Smart Sense</t>
   </si>
   <si>
@@ -4082,6 +4123,9 @@
   </si>
   <si>
     <t>2023-07-26T22:31:49Z</t>
+  </si>
+  <si>
+    <t>2023-07-24T15:05:26Z</t>
   </si>
   <si>
     <t>2023-07-20T14:38:01Z</t>
@@ -4623,7 +4667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4660,19 +4704,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4683,19 +4727,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4706,19 +4750,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4729,19 +4773,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4752,19 +4796,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4775,19 +4819,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4798,19 +4842,19 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4821,19 +4865,19 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G9" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4844,19 +4888,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4867,19 +4911,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G11" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4890,19 +4934,19 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4913,19 +4957,19 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4936,19 +4980,19 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4959,19 +5003,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4982,19 +5026,19 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5005,19 +5049,19 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G17" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5028,19 +5072,19 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5051,19 +5095,19 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G19" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5074,19 +5118,19 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G20" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5097,19 +5141,19 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G21" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5120,19 +5164,19 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F22" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G22" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5143,19 +5187,19 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F23" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G23" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5166,19 +5210,19 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F24" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G24" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5189,19 +5233,19 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5212,19 +5256,19 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G26" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5235,19 +5279,19 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F27" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G27" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5258,19 +5302,19 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F28" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G28" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5281,19 +5325,19 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G29" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5304,19 +5348,19 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F30" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G30" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5327,19 +5371,19 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G31" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5350,19 +5394,19 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G32" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5373,19 +5417,19 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G33" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5396,19 +5440,19 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G34" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5419,19 +5463,19 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F35" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G35" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5442,19 +5486,19 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G36" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5465,19 +5509,19 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5488,19 +5532,19 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5511,19 +5555,19 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G39" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5534,19 +5578,19 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G40" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5557,19 +5601,19 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5580,19 +5624,19 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5603,19 +5647,19 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5626,19 +5670,19 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5649,19 +5693,19 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5672,19 +5716,19 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5695,19 +5739,19 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5718,42 +5762,42 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F48" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G48" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F49" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G49" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5764,88 +5808,88 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F50" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G50" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G51" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G52" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G53" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5856,88 +5900,88 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F54" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G54" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G56" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F57" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G57" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5948,65 +5992,65 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="G58" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="G59" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G60" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6017,19 +6061,19 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="G61" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6040,42 +6084,42 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G62" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F63" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="G63" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6086,19 +6130,19 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F64" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G64" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6109,42 +6153,42 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F65" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G65" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F66" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="G66" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6155,88 +6199,88 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G67" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F68" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G68" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F69" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="G69" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="G70" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6247,19 +6291,19 @@
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="G71" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6270,19 +6314,19 @@
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="G72" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6293,19 +6337,19 @@
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F73" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G73" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6316,19 +6360,19 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F74" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G74" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6339,19 +6383,19 @@
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F75" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="G75" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6362,19 +6406,19 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G76" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6385,19 +6429,19 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F77" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G77" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6408,65 +6452,65 @@
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F78" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G78" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F79" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="G79" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F80" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="G80" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6477,19 +6521,19 @@
         <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G81" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6500,111 +6544,111 @@
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G82" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F83" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G83" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F84" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G84" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G85" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G86" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6615,19 +6659,19 @@
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G87" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6638,19 +6682,19 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F88" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G88" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6661,19 +6705,19 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F89" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G89" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6684,19 +6728,19 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F90" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G90" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6707,19 +6751,19 @@
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G91" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6730,65 +6774,65 @@
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F92" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G92" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F93" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G93" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F94" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G94" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6799,19 +6843,19 @@
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F95" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G95" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6822,19 +6866,19 @@
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F96" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G96" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6845,19 +6889,19 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F97" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G97" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6868,19 +6912,19 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F98" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G98" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6891,19 +6935,19 @@
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E99" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F99" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G99" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6914,19 +6958,19 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F100" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G100" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6937,19 +6981,19 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F101" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G101" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6960,19 +7004,19 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F102" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G102" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6983,19 +7027,19 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E103" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F103" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G103" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7006,19 +7050,19 @@
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F104" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G104" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7029,19 +7073,42 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" t="s">
+        <v>328</v>
+      </c>
+      <c r="F105" t="s">
+        <v>374</v>
+      </c>
+      <c r="G105" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D105" t="s">
-        <v>222</v>
-      </c>
-      <c r="E105" t="s">
-        <v>326</v>
-      </c>
-      <c r="F105" t="s">
-        <v>370</v>
-      </c>
-      <c r="G105" t="s">
-        <v>479</v>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>224</v>
+      </c>
+      <c r="E106" t="s">
+        <v>329</v>
+      </c>
+      <c r="F106" t="s">
+        <v>374</v>
+      </c>
+      <c r="G106" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7150,6 +7217,7 @@
     <hyperlink ref="B103" r:id="rId102"/>
     <hyperlink ref="B104" r:id="rId103"/>
     <hyperlink ref="B105" r:id="rId104"/>
+    <hyperlink ref="B106" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="494">
   <si>
     <t>Category</t>
   </si>
@@ -58,12 +58,18 @@
     <t>Story</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=LBudghsdByQ&amp;t=701s</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=GZdytTKeGYM</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vU2S6dVf79M</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=lEt6OJEArM8&amp;t=603s</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=KRxhnSkgxtk</t>
   </si>
   <si>
@@ -376,12 +382,18 @@
     <t>-</t>
   </si>
   <si>
+    <t>Why Korea is Dying Out</t>
+  </si>
+  <si>
     <t>RT-X and the Dawn of Large Multimodal Models: Google Breakthrough and 160-page Report Highlights</t>
   </si>
   <si>
     <t>AutoGen Tutorial 🚀 Create Custom AI Agents EASILY (Incredible)</t>
   </si>
   <si>
+    <t>Piers Morgan vs Yuval Noah Harari On AI | The Full Interview</t>
+  </si>
+  <si>
     <t>“It’s An Emergency!” The Number Of Men Having No Sex Increased 180%! - Professor Scott Galloway</t>
   </si>
   <si>
@@ -689,6 +701,61 @@
   </si>
   <si>
     <t>Eigenvectors and eigenvalues | Chapter 14, Essence of linear algebra</t>
+  </si>
+  <si>
+    <t>Go to https://brilliant.org/nutshell/ to dive deeper into these topics and more with a free 30-day trial + 20% off for the first 200 people! 
+This video was sponsored by Brilliant. Thanks a lot for the support!
+If you want to support this channel and get something nice in return check out our shop: https://shop.kgs.link/earth-plushie
+Sources &amp; further reading:
+https://sites.google.com/view/sources-populationcrash/startseite?authuser=2 
+Every two years one million Japanese disappear, China’s population will halve by the end of the century, the median age in Italy has reached 48. All around the world birth rates are crashing – Is humanity dying out? What is going on and how bad is it?
+OUR CHANNELS
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+German:        https://kgs.link/youtubeDE
+Spanish:        https://kgs.link/youtubeES
+French:          https://kgs.link/youtubeFR
+Portuguese:  https://kgs.link/youtubePT
+Arabic:           https://kgs.link/youtubeAR
+Hindi:             https://kgs.link/youtubeHI
+Japanese:     https://kgs.link/youtubeJA
+Korean:          https://kgs.link/youtubeKO
+HOW CAN YOU SUPPORT US?
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+This is how we make our living and it would be a pleasure if you support us!
+Get Products designed with ❤ https://shop-us.kurzgesagt.org  
+Join the Patreon Bird Army 🐧  https://kgs.link/patreon  
+DISCUSSIONS &amp; SOCIAL MEDIA
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+TikTok:           https://kgs.link/tiktok
+Reddit:            https://kgs.link/reddit
+Instagram:     https://kgs.link/instagram
+Twitter:           https://kgs.link/twitter
+Facebook:      https://kgs.link/facebook
+Discord:          https://kgs.link/discord
+Newsletter:    https://kgs.link/newsletter
+OUR VOICE
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+The Kurzgesagt voice is from 
+Steve Taylor:  https://kgs.link/youtube-voice
+OUR MUSIC ♬♪
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+700+ minutes of Kurzgesagt Soundtracks by Epic Mountain:
+Spotify:            https://kgs.link/music-spotify
+Soundcloud:   https://kgs.link/music-soundcloud
+Bandcamp:     https://kgs.link/music-bandcamp
+Youtube:          https://kgs.link/music-youtube
+Facebook:       https://kgs.link/music-facebook
+The Soundtrack of this video:
+Soundcloud: https://bit.ly/46p7FNV
+Bandcamp: https://bit.ly/3Zy5tkZ
+If you want to help us caption this video, please send subtitles to subtitle@kurzgesagt.org
+You can find info on what subtitle files work on YouTube here:
+https://support.google.com/youtube/answer/2734698?hl=en-GB&amp;ref_topic=7296214
+Thank you!
+🐦🐧🐤 PATREON BIRD ARMY 🐤🐧🐦
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+Many Thanks to our wonderful Patreons (from http://kgs.link/patreon) who support us every month and made this video possible:
+Rebecca Lin, 金山俊　那須, Britnei Tweedy, Ryan, 슝 김, Tyler, Kathi, Ivan Milani, Rico Aarntzen, Nikita Khlebushkin, Christopher Kyle Horton, Valentin Binotto, Nico Riemann, Jesse Plung, Timothy Dooley, Yasheen Sewnarain, saif samer, Taki Reizen, Dragon force Secret art, Jasper Narvil, Alexander Rajaković, TheDoxy, Martijn Gerritsen, Bogdan, Manuel Berdin, Karen Epstein, Sinjid, Peyton, Adi Wabisabi, Infinitae Aetas, Ruben Iusim, febilly, Reyansh Baralay, Ecunna Versity, Stefan Mermans, Nicholas Fernald, Enrique Gonzalez, Jimmy W, Andrew Keenan Richardson, DeMar M., Jordan, chrisby, Niklas Sommer, Kathi, Jakob, Christina Woodbury, Scientist Keo, Dante Jerlich, NekuSoul, Frivack, Adrian, Robin Z., Zeal, MontanaMonarch, Matthew Watson, 민호 김, Mason Edmonds, Nils Hegenbart, Snail, Israel, Ariel Grucza, The Awkward Yeti, Don B, Andreas Andreas, Xeovis</t>
   </si>
   <si>
     <t>A huge new insider report on GPT Vision is released by Microsoft and just in the last few hours the RT-X series is dropped by Google in Robotics. I will not only break down the 160+ page report on what GPT-4V can do and what it can't, including new use cases, prompting techniques and failure modes, I'll also go through the full RT-2-X and RT-1-X demo, which I am calling the GPT2 moment for robotics. Plus its huge new opensource Open X-Embodiment dataset.
@@ -720,6 +787,22 @@
 https://www.microsoft.com/en-us/research/blog/autogen-enabling-next-generation-large-language-model-applications/
 https://github.com/microsoft/autogen
 https://microsoft.github.io/autogen/docs/Examples/AutoGen-AgentChat/</t>
+  </si>
+  <si>
+    <t>Piers Morgan Uncensored is joined by historian and philosopher Yuval Noah Harari for an in-depth conversation about the intricacies, benefits and threats of Artificial Intelligence and how the world should move forward using AI and the risks of what could happen without regulation.
+Yuval believes that AI development needs to be regulated in a similar manner to how new medicines are studied and introduced. He feels that new technology needs to be thoroughly tested before being deployed for public use.
+Yuval believes the main threat of AI is that it will break the trust of human-to-human interaction with 'fake humans' and believes our entire society, democracy and economy are based on the trust of human-to-human transactions and relationships. Yuval suggests we should look to ban 'fake humans' and 'deep fake' AI before it reaches a point of self-design and starts creating independent-thinking fake humans.
+Subscribe to stay up-to-date on all Uncensored content.
+Follow Piers Morgan Uncensored on:
+Twitter: https://twitter.com/PiersUncensored
+Instagram: https://www.instagram.com/piersmorgan...
+Facebook: https://www.facebook.com/piersmorganu...
+TikTok: https://www.tiktok.com/@piersmorganun...
+Follow Piers Morgan on:
+Twitter: https://twitter.com/piersmorgan
+Instagram: https://www.instagram.com/piersmorgan
+Piers Morgan Uncensored is now available on TalkTV, Fox Nation and Sky News Australia!
+#piersmorgan #ai #artificialintelligence #yuvalnoahharari #interview #debate #talktv</t>
   </si>
   <si>
     <t>If you enjoyed this video, you can listen to my first conversation with Scott, here: https://www.youtube.com/watch?v=vHpZEMesriU
@@ -3834,12 +3917,18 @@
 Reddit: https://www.reddit.com/r/3Blue1Brown</t>
   </si>
   <si>
+    <t>Kurzgesagt – In a Nutshell</t>
+  </si>
+  <si>
     <t>AI Explained</t>
   </si>
   <si>
     <t>Matthew Berman</t>
   </si>
   <si>
+    <t>Piers Morgan Uncensored</t>
+  </si>
+  <si>
     <t>The Diary Of A CEO</t>
   </si>
   <si>
@@ -3975,19 +4064,22 @@
     <t>Inspirational Ideas</t>
   </si>
   <si>
-    <t>Kurzgesagt – In a Nutshell</t>
-  </si>
-  <si>
     <t>Self Motivate</t>
   </si>
   <si>
     <t>Neuralink</t>
   </si>
   <si>
+    <t>2023-10-04T14:00:02Z</t>
+  </si>
+  <si>
     <t>2023-10-03T21:52:21Z</t>
   </si>
   <si>
     <t>2023-10-03T14:23:06Z</t>
+  </si>
+  <si>
+    <t>2023-10-02T16:00:35Z</t>
   </si>
   <si>
     <t>2023-10-02T07:00:13Z</t>
@@ -4667,7 +4759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4704,180 +4796,180 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G6" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G8" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="G9" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4888,19 +4980,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4911,111 +5003,111 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G12" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G13" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5026,157 +5118,157 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G16" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G17" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F19" t="s">
         <v>344</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F20" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G20" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G21" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F22" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G22" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5187,318 +5279,318 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F23" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G23" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F24" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G24" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="G25" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G26" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F27" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G27" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G28" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G29" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G30" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G31" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F32" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G32" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F33" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G33" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F34" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G34" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F35" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G35" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G36" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5509,19 +5601,19 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F37" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5532,19 +5624,19 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5555,111 +5647,111 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G40" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F41" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G42" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5670,42 +5762,42 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="G44" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5716,19 +5808,19 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5739,19 +5831,19 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5762,42 +5854,42 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G48" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5808,65 +5900,65 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G50" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F51" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G51" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5877,19 +5969,19 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G53" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5900,88 +5992,88 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F54" t="s">
         <v>365</v>
       </c>
       <c r="G54" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F55" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F56" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G56" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F57" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G57" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5992,65 +6084,65 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G58" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G59" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6061,42 +6153,42 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="G61" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F62" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="G62" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6107,65 +6199,65 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="G63" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F64" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="G64" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="G65" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6176,111 +6268,111 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="G66" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G67" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G68" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="G69" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G70" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6291,42 +6383,42 @@
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G71" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="G72" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6337,19 +6429,19 @@
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G73" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6360,19 +6452,19 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F74" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="G74" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6383,19 +6475,19 @@
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G75" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6406,19 +6498,19 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F76" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G76" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6429,19 +6521,19 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="G77" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6452,19 +6544,19 @@
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E78" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G78" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6475,42 +6567,42 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G79" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E80" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G80" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6521,42 +6613,42 @@
         <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G81" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="G82" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6567,42 +6659,42 @@
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="G83" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E84" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="G84" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6613,42 +6705,42 @@
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F85" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G85" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G86" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6659,42 +6751,42 @@
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F87" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G87" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E88" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F88" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G88" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6705,19 +6797,19 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G89" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6728,19 +6820,19 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="G90" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6751,19 +6843,19 @@
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F91" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G91" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6774,19 +6866,19 @@
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F92" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="G92" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6797,42 +6889,42 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G93" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6843,42 +6935,42 @@
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="G95" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="G96" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6889,19 +6981,19 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E97" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F97" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="G97" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6912,19 +7004,19 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G98" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6935,19 +7027,19 @@
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F99" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G99" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6958,19 +7050,19 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G100" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6981,19 +7073,19 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E101" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G101" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7004,19 +7096,19 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E102" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F102" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G102" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7027,19 +7119,19 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F103" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G103" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7050,19 +7142,19 @@
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F104" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G104" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7073,19 +7165,19 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E105" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F105" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G105" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7096,19 +7188,65 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" t="s">
+        <v>333</v>
+      </c>
+      <c r="F106" t="s">
+        <v>382</v>
+      </c>
+      <c r="G106" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D106" t="s">
-        <v>224</v>
-      </c>
-      <c r="E106" t="s">
-        <v>329</v>
-      </c>
-      <c r="F106" t="s">
-        <v>374</v>
-      </c>
-      <c r="G106" t="s">
-        <v>484</v>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" t="s">
+        <v>227</v>
+      </c>
+      <c r="E107" t="s">
+        <v>334</v>
+      </c>
+      <c r="F107" t="s">
+        <v>382</v>
+      </c>
+      <c r="G107" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>228</v>
+      </c>
+      <c r="E108" t="s">
+        <v>335</v>
+      </c>
+      <c r="F108" t="s">
+        <v>382</v>
+      </c>
+      <c r="G108" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -7218,6 +7356,8 @@
     <hyperlink ref="B104" r:id="rId103"/>
     <hyperlink ref="B105" r:id="rId104"/>
     <hyperlink ref="B106" r:id="rId105"/>
+    <hyperlink ref="B107" r:id="rId106"/>
+    <hyperlink ref="B108" r:id="rId107"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="495">
   <si>
     <t>Category</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=itY6VWpdECc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l5WybwqCZic&amp;t=38s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=l5WybwqCZic</t>
@@ -4759,7 +4762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4796,19 +4799,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4819,19 +4822,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4842,19 +4845,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4865,19 +4868,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4888,19 +4891,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4911,19 +4914,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4934,19 +4937,19 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4957,19 +4960,19 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4980,19 +4983,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5003,19 +5006,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5026,19 +5029,19 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5049,19 +5052,19 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5072,19 +5075,19 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5095,19 +5098,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5118,19 +5121,19 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5141,19 +5144,19 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5164,19 +5167,19 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5187,19 +5190,19 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5210,19 +5213,19 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5233,19 +5236,19 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5256,19 +5259,19 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5279,19 +5282,19 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5302,19 +5305,19 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5325,19 +5328,19 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5348,19 +5351,19 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5371,19 +5374,19 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5394,19 +5397,19 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5417,19 +5420,19 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5440,19 +5443,19 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5463,19 +5466,19 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5486,19 +5489,19 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5509,19 +5512,19 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5532,19 +5535,19 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5555,19 +5558,19 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5578,19 +5581,19 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5601,19 +5604,19 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5624,19 +5627,19 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5647,19 +5650,19 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5670,19 +5673,19 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5693,19 +5696,19 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5716,19 +5719,19 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5739,19 +5742,19 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5762,19 +5765,19 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5785,19 +5788,19 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G45" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5808,19 +5811,19 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5831,19 +5834,19 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5854,19 +5857,19 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G48" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5877,19 +5880,19 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5900,19 +5903,19 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G50" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5923,19 +5926,19 @@
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F51" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G51" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5946,19 +5949,19 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G52" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5969,19 +5972,19 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G53" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5992,19 +5995,19 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6015,19 +6018,19 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G55" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6038,19 +6041,19 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6061,19 +6064,19 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G57" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6084,19 +6087,19 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6107,19 +6110,19 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6130,19 +6133,19 @@
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G60" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6153,30 +6156,30 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
         <v>182</v>
@@ -6185,7 +6188,7 @@
         <v>289</v>
       </c>
       <c r="F62" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="G62" t="s">
         <v>447</v>
@@ -6193,13 +6196,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -6222,7 +6225,7 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
         <v>184</v>
@@ -6231,7 +6234,7 @@
         <v>291</v>
       </c>
       <c r="F64" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="G64" t="s">
         <v>449</v>
@@ -6245,7 +6248,7 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
         <v>185</v>
@@ -6254,7 +6257,7 @@
         <v>292</v>
       </c>
       <c r="F65" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G65" t="s">
         <v>450</v>
@@ -6262,13 +6265,13 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
         <v>186</v>
@@ -6277,7 +6280,7 @@
         <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="G66" t="s">
         <v>451</v>
@@ -6291,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
         <v>187</v>
@@ -6300,7 +6303,7 @@
         <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G67" t="s">
         <v>452</v>
@@ -6314,7 +6317,7 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
         <v>188</v>
@@ -6323,7 +6326,7 @@
         <v>295</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G68" t="s">
         <v>453</v>
@@ -6331,13 +6334,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
         <v>189</v>
@@ -6346,7 +6349,7 @@
         <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="G69" t="s">
         <v>454</v>
@@ -6360,7 +6363,7 @@
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
         <v>190</v>
@@ -6369,7 +6372,7 @@
         <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="G70" t="s">
         <v>455</v>
@@ -6377,13 +6380,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
         <v>191</v>
@@ -6392,7 +6395,7 @@
         <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G71" t="s">
         <v>456</v>
@@ -6400,13 +6403,13 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
         <v>192</v>
@@ -6415,7 +6418,7 @@
         <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="G72" t="s">
         <v>457</v>
@@ -6423,13 +6426,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
         <v>193</v>
@@ -6438,7 +6441,7 @@
         <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="G73" t="s">
         <v>458</v>
@@ -6452,7 +6455,7 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
         <v>194</v>
@@ -6461,7 +6464,7 @@
         <v>301</v>
       </c>
       <c r="F74" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G74" t="s">
         <v>459</v>
@@ -6475,7 +6478,7 @@
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
         <v>195</v>
@@ -6484,7 +6487,7 @@
         <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="G75" t="s">
         <v>460</v>
@@ -6498,7 +6501,7 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
         <v>196</v>
@@ -6521,7 +6524,7 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
         <v>197</v>
@@ -6544,7 +6547,7 @@
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
         <v>198</v>
@@ -6553,7 +6556,7 @@
         <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G78" t="s">
         <v>463</v>
@@ -6567,7 +6570,7 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
         <v>199</v>
@@ -6576,7 +6579,7 @@
         <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G79" t="s">
         <v>464</v>
@@ -6590,7 +6593,7 @@
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
         <v>200</v>
@@ -6599,7 +6602,7 @@
         <v>307</v>
       </c>
       <c r="F80" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G80" t="s">
         <v>465</v>
@@ -6613,7 +6616,7 @@
         <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
         <v>201</v>
@@ -6622,7 +6625,7 @@
         <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G81" t="s">
         <v>466</v>
@@ -6630,13 +6633,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
         <v>202</v>
@@ -6645,7 +6648,7 @@
         <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="G82" t="s">
         <v>467</v>
@@ -6653,13 +6656,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
         <v>203</v>
@@ -6668,7 +6671,7 @@
         <v>310</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="G83" t="s">
         <v>468</v>
@@ -6682,7 +6685,7 @@
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
         <v>204</v>
@@ -6691,7 +6694,7 @@
         <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="G84" t="s">
         <v>469</v>
@@ -6705,7 +6708,7 @@
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
         <v>205</v>
@@ -6714,7 +6717,7 @@
         <v>312</v>
       </c>
       <c r="F85" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="G85" t="s">
         <v>470</v>
@@ -6722,13 +6725,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D86" t="s">
         <v>206</v>
@@ -6737,7 +6740,7 @@
         <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G86" t="s">
         <v>471</v>
@@ -6745,13 +6748,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D87" t="s">
         <v>207</v>
@@ -6760,7 +6763,7 @@
         <v>314</v>
       </c>
       <c r="F87" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="G87" t="s">
         <v>472</v>
@@ -6768,13 +6771,13 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
         <v>208</v>
@@ -6783,7 +6786,7 @@
         <v>315</v>
       </c>
       <c r="F88" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="G88" t="s">
         <v>473</v>
@@ -6791,13 +6794,13 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D89" t="s">
         <v>209</v>
@@ -6806,7 +6809,7 @@
         <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G89" t="s">
         <v>474</v>
@@ -6820,7 +6823,7 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
         <v>210</v>
@@ -6829,7 +6832,7 @@
         <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G90" t="s">
         <v>475</v>
@@ -6843,7 +6846,7 @@
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
         <v>211</v>
@@ -6852,7 +6855,7 @@
         <v>318</v>
       </c>
       <c r="F91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G91" t="s">
         <v>476</v>
@@ -6866,7 +6869,7 @@
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
         <v>212</v>
@@ -6875,7 +6878,7 @@
         <v>319</v>
       </c>
       <c r="F92" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G92" t="s">
         <v>477</v>
@@ -6889,7 +6892,7 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D93" t="s">
         <v>213</v>
@@ -6898,7 +6901,7 @@
         <v>320</v>
       </c>
       <c r="F93" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="G93" t="s">
         <v>478</v>
@@ -6912,7 +6915,7 @@
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D94" t="s">
         <v>214</v>
@@ -6921,7 +6924,7 @@
         <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G94" t="s">
         <v>479</v>
@@ -6935,7 +6938,7 @@
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
         <v>215</v>
@@ -6944,7 +6947,7 @@
         <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G95" t="s">
         <v>480</v>
@@ -6952,13 +6955,13 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
         <v>216</v>
@@ -6967,7 +6970,7 @@
         <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G96" t="s">
         <v>481</v>
@@ -6975,13 +6978,13 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
         <v>217</v>
@@ -6990,7 +6993,7 @@
         <v>324</v>
       </c>
       <c r="F97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G97" t="s">
         <v>482</v>
@@ -7004,7 +7007,7 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
         <v>218</v>
@@ -7013,7 +7016,7 @@
         <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G98" t="s">
         <v>483</v>
@@ -7027,7 +7030,7 @@
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
         <v>219</v>
@@ -7036,7 +7039,7 @@
         <v>326</v>
       </c>
       <c r="F99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G99" t="s">
         <v>484</v>
@@ -7050,7 +7053,7 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
         <v>220</v>
@@ -7059,7 +7062,7 @@
         <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="G100" t="s">
         <v>485</v>
@@ -7073,7 +7076,7 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
         <v>221</v>
@@ -7082,7 +7085,7 @@
         <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G101" t="s">
         <v>486</v>
@@ -7096,7 +7099,7 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
         <v>222</v>
@@ -7105,7 +7108,7 @@
         <v>329</v>
       </c>
       <c r="F102" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="G102" t="s">
         <v>487</v>
@@ -7119,7 +7122,7 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D103" t="s">
         <v>223</v>
@@ -7128,7 +7131,7 @@
         <v>330</v>
       </c>
       <c r="F103" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="G103" t="s">
         <v>488</v>
@@ -7142,7 +7145,7 @@
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
         <v>224</v>
@@ -7151,7 +7154,7 @@
         <v>331</v>
       </c>
       <c r="F104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G104" t="s">
         <v>489</v>
@@ -7165,7 +7168,7 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D105" t="s">
         <v>225</v>
@@ -7174,7 +7177,7 @@
         <v>332</v>
       </c>
       <c r="F105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G105" t="s">
         <v>490</v>
@@ -7188,7 +7191,7 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D106" t="s">
         <v>226</v>
@@ -7197,7 +7200,7 @@
         <v>333</v>
       </c>
       <c r="F106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G106" t="s">
         <v>491</v>
@@ -7211,7 +7214,7 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
         <v>227</v>
@@ -7220,7 +7223,7 @@
         <v>334</v>
       </c>
       <c r="F107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G107" t="s">
         <v>492</v>
@@ -7234,7 +7237,7 @@
         <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D108" t="s">
         <v>228</v>
@@ -7243,10 +7246,33 @@
         <v>335</v>
       </c>
       <c r="F108" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G108" t="s">
         <v>493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" t="s">
+        <v>383</v>
+      </c>
+      <c r="G109" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -7358,6 +7384,7 @@
     <hyperlink ref="B106" r:id="rId105"/>
     <hyperlink ref="B107" r:id="rId106"/>
     <hyperlink ref="B108" r:id="rId107"/>
+    <hyperlink ref="B109" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="505">
   <si>
     <t>Category</t>
   </si>
@@ -175,6 +175,9 @@
     <t>https://www.youtube.com/watch?v=qQviI1d_hFA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Z6fk1gZjDNg</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=-OZJRx5FREI</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>https://www.youtube.com/watch?v=LhX25V3cc2E</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=o4V1RgesdGc</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=1WOjjgyZPj8</t>
   </si>
   <si>
@@ -502,6 +508,9 @@
     <t>Michio Kaku: Quantum computing is the next revolution</t>
   </si>
   <si>
+    <t>Azure OpenAI 101: Powering ChatGPT with your Data - A Deep Dive #chatgpt</t>
+  </si>
+  <si>
     <t>Why AI Is No Longer About Technology -  Ex Google Mo Gawdat Predicts Our Future With Happiness</t>
   </si>
   <si>
@@ -533,6 +542,9 @@
   </si>
   <si>
     <t>Azure OpenAI - Chat with Your Own Data</t>
+  </si>
+  <si>
+    <t>Hands on with Azure OpenAI Service and Introducing Generative AI Mesh from Data Engine</t>
   </si>
   <si>
     <t>The Most Likely Outcomes of an AI Future with Emad Mostaque | EP #55</t>
@@ -1626,6 +1638,30 @@
 ► https://bigthink.com/starts-with-a-bang/this-90-year-old-math-problem-shows-why-we-need-quantum-computers/?utm_source=youtube&amp;utm_medium=video&amp;utm_campaign=youtube_description</t>
   </si>
   <si>
+    <t>Azure OpenAI Introduction &amp; Fine Tuning video: https://www.youtube.com/watch?v=0wqjKb60f2Q
+0:00   | Introduction
+1:26   | Fine Tuning vs. Retrieval Augmented Generation (RAG)
+4:06   | Questions to guide your approach 
+8:26   | Architecture of ChatGPT with your Data 
+8:39   | Knowledge base, considerations/limitations of knowledge source
+9:56   | Underneath the hood
+11:00 | Private Endpoint Support
+11:39 | Azure AI Studio review, Content Filtering, Quotas, and Chat Playground
+14:19 | System message
+Implementation:
+15:03 | Adding a data source &amp; Troubleshooting &amp; Considerations (Roles &amp; Permissions)
+16:40 | Adding Cognitive Search Index for Cosmos DB
+18:25 | Adding field mapping &amp; semantic search
+18:54 | Cosmos DB data source overview
+19:10 | Cognitive Search overview, indexes, indexers, and refresh scheduling
+20:51 | Chatting with your Cosmos DB data
+21:47 | Deploying the Chat to an Azure web app 
+22:40 | Chat Playground Stateless &amp; Why we deploy to a web app
+23:30 | Configurations/Git Hub Repo/Adjusting parameters for the web app via app services
+25:30 | Chat with your Cosmos DB data using a web app 
+25:50 | Limit responses to your data content</t>
+  </si>
+  <si>
     <t>According to Mo Gawdat, former Chief Business Officer at Google, renowned AI and Happiness Expert, and bestselling author (Solve For Happy, Scary Smart), the realm of artificial intelligence (AI) has transcended mere code and is now intricately tied to our behavior and choices.
 In this exclusive BrightVibes interview, Mo Gawdat opens up about the motivations behind his departure from Google and shares his perspective on why human conduct outweighs the significance of AI programming. He delves into the profound interplay of love, compassion, and happiness in conjunction with AI, illustrating how this synergy will play a pivotal role in shaping the future of humanity.
 Although this conversation was recorded in July 2019, its relevance has only grown with time. Gawdat's profound wisdom and insights resonate even more deeply today than they did four years ago.
@@ -1896,6 +1932,16 @@
                          --location $loc
 Custom Demo - https://github.com/Azure-Samples/azure-search-openai-demo
 🔔 Don't forget to like, subscribe, and hit the notification bell to stay updated with the latest videos in the Azure OpenAI Service series!</t>
+  </si>
+  <si>
+    <t>The team from Data Engine share their new innovative solution using Azure Generative AI + Data Mesh + Data Practices to provide a complete turnkey people, process and technology product., Generative AI Mesh.
+Dan Scott-Raynsford shares how to quickly build enterprise Chat and Chat over your documents using the new bring your own data preview feature in Azure OpenAI Service.
+Chapters:
+0:00 Welcome and Agenda
+3:15 Latest Azure News
+6:34 Hands-On with Azure OpenAI Service
+39:10 DataEngine: Generative Mesh
+53:55 Q&amp;A</t>
   </si>
   <si>
     <t>This episode is supported by exceptional companies:
@@ -4010,6 +4056,9 @@
     <t>Big Think</t>
   </si>
   <si>
+    <t>Abdul Zedan</t>
+  </si>
+  <si>
     <t>BrightVibes</t>
   </si>
   <si>
@@ -4028,6 +4077,9 @@
     <t>Meet Kamal Today - Cloud Mastery</t>
   </si>
   <si>
+    <t>Aotearoa Azure Meetup</t>
+  </si>
+  <si>
     <t>Smart Sense</t>
   </si>
   <si>
@@ -4190,6 +4242,9 @@
     <t>2023-08-18T13:00:48Z</t>
   </si>
   <si>
+    <t>2023-08-16T16:03:27Z</t>
+  </si>
+  <si>
     <t>2023-08-15T16:00:00Z</t>
   </si>
   <si>
@@ -4221,6 +4276,9 @@
   </si>
   <si>
     <t>2023-07-24T15:05:26Z</t>
+  </si>
+  <si>
+    <t>2023-07-20T22:54:56Z</t>
   </si>
   <si>
     <t>2023-07-20T14:38:01Z</t>
@@ -4762,7 +4820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4799,19 +4857,19 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4822,19 +4880,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4845,19 +4903,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4868,19 +4926,19 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G5" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4891,19 +4949,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G6" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4914,19 +4972,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4937,19 +4995,19 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4960,19 +5018,19 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4983,19 +5041,19 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5006,19 +5064,19 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5029,19 +5087,19 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G12" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5052,19 +5110,19 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5075,19 +5133,19 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5098,19 +5156,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F15" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5121,19 +5179,19 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5144,19 +5202,19 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G17" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5167,19 +5225,19 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5190,19 +5248,19 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G19" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5213,19 +5271,19 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G20" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5236,19 +5294,19 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5259,19 +5317,19 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5282,19 +5340,19 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F23" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5305,19 +5363,19 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5328,19 +5386,19 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F25" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5351,19 +5409,19 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F26" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G26" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5374,19 +5432,19 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F27" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G27" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5397,19 +5455,19 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G28" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5420,19 +5478,19 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F29" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5443,19 +5501,19 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F30" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G30" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5466,19 +5524,19 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F31" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G31" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5489,19 +5547,19 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F32" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G32" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5512,19 +5570,19 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F33" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5535,19 +5593,19 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F34" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G34" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5558,19 +5616,19 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G35" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5581,19 +5639,19 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G36" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5604,19 +5662,19 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F37" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G37" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5627,19 +5685,19 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G38" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5650,19 +5708,19 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5673,65 +5731,65 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G40" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G41" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5742,42 +5800,42 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F43" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="G44" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5788,19 +5846,19 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5811,203 +5869,203 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G46" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="G47" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G50" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G51" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F52" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G52" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G53" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E54" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F54" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G54" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6018,19 +6076,19 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G55" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6041,88 +6099,88 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G57" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F58" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F59" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G59" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6133,42 +6191,42 @@
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F60" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G60" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="G61" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6179,42 +6237,42 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="G62" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="G63" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6225,42 +6283,42 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="G64" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G65" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6271,65 +6329,65 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F66" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="G66" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="G67" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E68" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="G68" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6340,111 +6398,111 @@
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="G69" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E70" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F70" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G70" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F71" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G71" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G72" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F73" t="s">
         <v>351</v>
       </c>
       <c r="G73" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6455,42 +6513,42 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E74" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G74" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="G75" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6501,19 +6559,19 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F76" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G76" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6524,19 +6582,19 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="G77" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6547,19 +6605,19 @@
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G78" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6570,19 +6628,19 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F79" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G79" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6593,19 +6651,19 @@
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F80" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="G80" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6616,19 +6674,19 @@
         <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G81" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6639,42 +6697,42 @@
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F82" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G82" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F83" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="G83" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6685,42 +6743,42 @@
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F84" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G84" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G85" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6731,42 +6789,42 @@
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F86" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="G86" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D87" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E87" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F87" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="G87" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6777,42 +6835,42 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F88" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="G88" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F89" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G89" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6823,42 +6881,42 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F90" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="G90" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F91" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="G91" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6869,19 +6927,19 @@
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E92" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F92" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G92" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6892,19 +6950,19 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E93" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F93" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G93" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6915,19 +6973,19 @@
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F94" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="G94" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6938,19 +6996,19 @@
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E95" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F95" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G95" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6961,42 +7019,42 @@
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F96" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G96" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G97" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7007,42 +7065,42 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F98" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G98" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E99" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F99" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G99" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7053,19 +7111,19 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E100" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F100" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G100" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7076,19 +7134,19 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E101" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F101" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="G101" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7099,19 +7157,19 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E102" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F102" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="G102" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7122,19 +7180,19 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E103" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G103" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7145,19 +7203,19 @@
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E104" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F104" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G104" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7168,19 +7226,19 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E105" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F105" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="G105" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7191,19 +7249,19 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E106" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F106" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G106" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7214,19 +7272,19 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E107" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F107" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G107" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7237,19 +7295,19 @@
         <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E108" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F108" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G108" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7260,19 +7318,65 @@
         <v>121</v>
       </c>
       <c r="C109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" t="s">
+        <v>340</v>
+      </c>
+      <c r="F109" t="s">
+        <v>391</v>
+      </c>
+      <c r="G109" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D109" t="s">
-        <v>229</v>
-      </c>
-      <c r="E109" t="s">
-        <v>336</v>
-      </c>
-      <c r="F109" t="s">
-        <v>383</v>
-      </c>
-      <c r="G109" t="s">
-        <v>494</v>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
+        <v>341</v>
+      </c>
+      <c r="F110" t="s">
+        <v>391</v>
+      </c>
+      <c r="G110" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>233</v>
+      </c>
+      <c r="E111" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" t="s">
+        <v>391</v>
+      </c>
+      <c r="G111" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7385,6 +7489,8 @@
     <hyperlink ref="B107" r:id="rId106"/>
     <hyperlink ref="B108" r:id="rId107"/>
     <hyperlink ref="B109" r:id="rId108"/>
+    <hyperlink ref="B110" r:id="rId109"/>
+    <hyperlink ref="B111" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="549">
   <si>
     <t>Category</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Education</t>
   </si>
   <si>
+    <t>News</t>
+  </si>
+  <si>
     <t>Tutorial</t>
   </si>
   <si>
@@ -58,6 +61,27 @@
     <t>Story</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=lFlu60qs7_4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K7M7-lCbOgg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Uh9bYiVrW_s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FHXmiAvloUg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V2qZ_lgxTzg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qrvK_KuIeJk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QQkmJI63ykI</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=LBudghsdByQ&amp;t=701s</t>
   </si>
   <si>
@@ -103,6 +127,9 @@
     <t>https://www.youtube.com/watch?v=5rEZGSFgZVY</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wCOaTFKcExo</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=LhnCsygAvzY</t>
   </si>
   <si>
@@ -298,6 +325,9 @@
     <t>https://www.youtube.com/watch?v=XeSu9fBJ2sI</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=8DaXgveiQvE</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=TILjzuBGkRc</t>
   </si>
   <si>
@@ -325,6 +355,9 @@
     <t>https://www.youtube.com/watch?v=lXfEK8G8CUI</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HeQX2HjkcNo</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rsCul1sp4hQ</t>
   </si>
   <si>
@@ -391,6 +424,27 @@
     <t>-</t>
   </si>
   <si>
+    <t>How One Line in the Oldest Math Text Hinted at Hidden Universes</t>
+  </si>
+  <si>
+    <t>The Insane AI News Happening No One is Noticing</t>
+  </si>
+  <si>
+    <t>RAG But Better: Rerankers with Cohere AI</t>
+  </si>
+  <si>
+    <t>Use AutoGen with ANY Open-Source Model! (RunPod + TextGen WebUI)</t>
+  </si>
+  <si>
+    <t>AutoGen FULL Tutorial with Python (Step-By-Step) 🤯 Build AI Agent Teams!</t>
+  </si>
+  <si>
+    <t>"Godfather of AI" Geoffrey Hinton: The 60 Minutes Interview</t>
+  </si>
+  <si>
+    <t>The Man Who Killed Millions and Saved Billions (Clean Version)</t>
+  </si>
+  <si>
     <t>Why Korea is Dying Out</t>
   </si>
   <si>
@@ -436,6 +490,9 @@
     <t>Introducing Copilot in Windows 11, new AI tools, and more</t>
   </si>
   <si>
+    <t>Emad Mostaque: How generative AI will unlock humanity's potential | CogX Festival 2023</t>
+  </si>
+  <si>
     <t>Chatbots with RAG: LangChain Full Walkthrough</t>
   </si>
   <si>
@@ -628,6 +685,9 @@
     <t>193,340 People Agree With Me, 85,660 Disagree</t>
   </si>
   <si>
+    <t>Stability AI's Emad Mostaque, The Future of Generative AI, Real-Time Movies, Societal Impact</t>
+  </si>
+  <si>
     <t>3 Ways Of Seeing Invisible Air Flow</t>
   </si>
   <si>
@@ -655,6 +715,9 @@
     <t>How The Immune System ACTUALLY Works – IMMUNE</t>
   </si>
   <si>
+    <t>Math's Fundamental Flaw</t>
+  </si>
+  <si>
     <t>Monkey MindPong</t>
   </si>
   <si>
@@ -716,6 +779,236 @@
   </si>
   <si>
     <t>Eigenvectors and eigenvalues | Chapter 14, Essence of linear algebra</t>
+  </si>
+  <si>
+    <t>Discover strange new universes that turn up at the core of Einstein’s General Relativity. Head to https://brilliant.org/veritasium  to start your free 30-day trial, and the first 200 people get 20% off an annual premium subscription.
+If you’re looking for a molecular modeling kit, try Snatoms – a kit I invented where the atoms snap together magnetically – https://ve42.co/SnatomsV  
+▀▀▀
+A massive thank you to Prof. Alex Kontorovich for all his help with this video.
+A huge thank you to Prof. Geraint Lewis and Dr. Ashmeet Singh for helping us understand the applications of Non-Euclidean geometry in astronomy/cosmology.
+Lastly, a big thank you to Dr. Henry Segerman and Dr. Rémi Coulon for helping us visualize what it’s like to be inside hyperbolic space and helping us understand hyperbolic geometry.
+▀▀▀
+Images:
+Euclid via Science Museum Group - https://ve42.co/Euclid
+Geodesy survey via ams - https://ve42.co/Geodesy
+John Wheeler via NAS Online - https://ve42.co/Wheeler
+▀▀▀
+References:
+Dunham, W. (1991). Journey through Genius: Great Theorems of Mathematics. John Wiley &amp; Sons.
+Bonola, R. (1955). Non-Euclidean geometry: A critical and historical study of its development. Courier Corporation.
+Library of Congress. (n.d.). The Library of Congress. - https://ve42.co/LibofCongress
+Euclid’s Elements, Wikipedia - https://ve42.co/Elements
+The History of Non-Euclidean Geometry, Extra History via YouTube - https://ve42.co/ExtraHistory
+We (could) live on a 4D Pringle - Physics for the Birds via YouTube - https://ve42.co/4DPringle
+Parallel Postulate, Wikipedia - https://ve42.co/Parallel
+Prékopa, A., &amp; Molnár, E. (Eds.). (2006). Non-euclidean geometries: János Bolyai memorial volume (Vol. 581). Springer Science &amp; Business Media. 
+St Andrews, University of. (n.d.). Bolyai. MacTutor History of Mathematics.  - https://ve42.co/Bolyai
+Bolyai, J. (1896). The Science Absolute of Space.. (Vol. 3). The Neomon.
+Gauss, Wikipedia - https://ve42.co/Gauss
+Landvermessung, D. Z. (1929). Abhandlungen ueber Gauss' wissenschaftliche Taetigkeit auf den Gebieten der Geodaesie, Physik und Astronomie Bd. 11, Abt.  - https://ve42.co/Landvermessung
+Nikolai Lobachevsky, Wikipedia - https://ve42.co/Lobachevsky
+Lobachevskiĭ, N. I. (1891). Geometrical researches on the theory of parallels. University of Texas. 
+A Problem with the Parallel Postulate, Numberphile via YouTube - https://ve42.co/NumberphileParallel
+Riemann, B. (2016). On the hypotheses which lie at the bases of geometry. Birkhäuser. - https://ve42.co/Riemann
+Einstein, A. (1905). On the electrodynamics of moving bodies. Annalen der physik, 17(10), 891-921. - https://ve42.co/Einstein1905
+Why Gravity is NOT a Force, Veritasium via YouTube - https://www.youtube.com/watch?v=XRr1kaXKBsU 
+ESA/Hubble. (n.d.). Hubblecast 90: The final frontier of the Frontier Fields. ESA/Hubble.  - https://ve42.co/Einstein1905
+Agazie, G., et al. (2023). The NANOGrav 15 yr data set: Constraints on supermassive black hole binaries from the gravitational-wave background. - https://ve42.co/NANOGrav
+Secrets of the Cosmic Microwave Background, PBS Spacetime via YouTube - https://ve42.co/PBSCMB
+Wood, C. (2020). How Ancient Light Reveals the Universe's Contents. Quanta Magazine. - https://ve42.co/AncientLight
+Collaboration (2014). Planck 2013 results. XVI. Cosmological parameters. A&amp;A, 571, A16. - https://ve42.co/Planck2013
+WMAP Science Team, NASA. (2014). Matter in the Universe. WMAP, NASA.  - https://ve42.co/WMAP2014
+Shape of the universe, Wikipedia - https://ve42.co/UniverseShape
+Crocheting Hyperbolic Planes: Daina Taimina by Ted, via YouTube - https://ve42.co/Hyperbolic
+Hyperbolic Crochet model - https://ve42.co/Crochet
+▀▀▀
+Special thanks to our Patreon supporters:
+Adam Foreman, Amadeo Bee, Anton Ragin, Balkrishna Heroor, Bernard McGee, Bill Linder, Burt Humburg, Dave Kircher, Diffbot, Evgeny Skvortsov, Gnare, Jesse Brandsoy, John H. Austin, Jr., john kiehl, Josh Hibschman, Juan Benet, KeyWestr, Lee Redden, Marinus Kuivenhoven, Mario Bottion, Max Maladino, Meekay, meg noah, Michael Krugman, Paul Peijzel, Richard Sundvall, Sam Lutfi, Stephen Wilcox, Tj Steyn, TTST, Ubiquity Ventures
+▀▀▀
+Directed by Casper Mebius
+Written by Casper Mebius, Petr Lebedev, Emily Zhang and Derek Muller
+Edited by Jack Saxon
+Animated by Fabio Albertelli, Ivy Tello, and Mike Radjabov 
+Illustrations by Jakub Misiek and Celia Bode
+Filmed by Derek Muller
+Produced by Casper Mebius, Derek Muller, and Han Evans
+Additional video/photos supplied by Getty Images, Pond5, and by courtesy of: NASA, NASA's Goddard Space Flight Center, NASA Goddard Flight Lab/ CI Lab, NASA’s WMAP science teams, ESO, and ESA/Hubble.
+Music from Epidemic Sound
+Thumbnail by Ren Hurley</t>
+  </si>
+  <si>
+    <t>Here's the AI news from this week that you likely missed. Thanks so much to Wirestock for sponsoring this week's breakdown! https://wirestock.io/ai-art-marketplace/?ref=matt.wolfe (Use code MATT20 for 20% off)
+Discover More From Me:
+🛠️ Explore hundreds of AI Tools: https://futuretools.io/
+📰 Weekly Newsletter: https://www.futuretools.io/newsletter
+😊 Discord Community: https://futuretools.io/discord
+🐤 Follow me on Twitter: https://twitter.com/mreflow
+🧵 Follow me on Threads: https://www.threads.net/@mr.eflow
+🐺 My personal blog: https://mattwolfe.com/
+Resources From Today's Video:
+GPT-4 faster: https://blog.portkey.ai/blog/gpt-4-is-getting-faster/?ref=futuretools.io
+DALL-E in ChatGPT: https://openai.com/blog/dall-e-3-is-now-available-in-chatgpt-plus-and-enterprise?ref=futuretools.io
+OpenAI values change: https://twitter.com/rowancheung/status/1713888044439237061
+OpenAI model scrapped: https://www.businessinsider.com/openai-model-arrakis-dystopian-desert-world-dune-2023-10
+Anthropic global launch: https://twitter.com/AnthropicAI/status/1714025126516432996
+UMG sues Anthropic: https://www.theverge.com/2023/10/19/23924100/universal-music-sue-anthropic-lyrics-copyright-katy-perry?ref=futuretools.io
+Pi Browses Web: https://twitter.com/inflectionAI/status/1714018923916534226
+FMT index: https://crfm.stanford.edu/fmti/?utm_source=substack&amp;utm_medium=email
+Baidu vs GPT-4: https://au.finance.yahoo.com/news/baidus-ceo-says-its-ernie-ai-is-not-inferior-in-any-aspect-to-gpt-4-162333722.html?ref=futuretools.io
+Wirestock: https://wirestock.io/ai-art-marketplace/?ref=matt.wolfe
+MidJourney Office Hours: https://twitter.com/saana_ai/status/1714757015250293170
+Midjourney mobile app: https://venturebeat.com/ai/midjourneys-first-mobile-app-is-here-sort-of/?ref=futuretools.io
+Pokemon RL training: https://www.youtube.com/watch?v=DcYLT37ImBY
+StackOverflow layoffs: https://www.theverge.com/2023/10/16/23919004/stack-overflow-layoff-ai-profitability?ref=futuretools.io
+YouTube AI ads: https://techcrunch.com/2023/10/16/youtube-gets-new-ai-powered-ads-that-let-brands-target-special-cultural-moments/
+Descript AI voices: https://www.descript.com/blog/article/descripts-new-ai-features?ref=futuretools.io
+NYC robocalls: https://www.theverge.com/2023/10/17/23920733/nyc-mayor-eric-adams-ai-robocalls-spanish-mandarin?ref=futuretools.io
+Brain image decoding: https://ai.meta.com/blog/brain-ai-image-decoding-meg-magnetoencephalography/?ref=futuretools.io
+Nvidia China chip block: https://www.theverge.com/2023/10/17/23921131/us-china-restrictions-ai-chip-sales-nvidia
+Amazon robots: https://www.engadget.com/amazon-says-its-new-ai-powered-robots-reduce-fulfilment-time-by-25-percent-122517342.html
+Dubai police robots: https://mediaoffice.ae/en/news/2023/October/16-10/Dubai-Police-Boost-Residential
+Figure One robot: https://www.youtube.com/watch?v=-4erYt2t7Bs
+Nvidia robot dexterity: https://www.youtube.com/watch?v=sDFAWnrCqKc
+Morph Studio: https://www.morphstudio.com/
+Masterpiece X: https://www.masterpiecex.com/
+Outro music generated by Mubert https://mubert.com/render
+Sponsorship/Media Inquiries: https://tally.so/r/nrBVlp
+#AINews #AITools #GenerativeArt
+Time Stamps:
+0:00 Intro
+0:12 GPT-4 is Getting Faster
+0:41 Dall-e 3 Available For All
+1:14 OpenAI's New Core Values
+2:20 OpenAI Ditches New AI Model
+2:48 Claude Available in 95 Countries
+3:20 Anthropic Being Sued
+5:01 Pi Can Search The Web
+5:48 Who's Most Transparent?
+6:45 Ernie Bot As Good as GPT-4?
+7:20 Nvidia Can't Sell To China
+7:56 Earn Money From AI Images
+10:01 MidJourney Updates
+11:11 AI Plays Pokemon
+12:03 Stack Overflow Lays Off 28%
+12:51 YouTube New AI Ads
+13:28 Descript Getting Into AI
+14:10 NYC Mayor AI Robocalls
+14:48 Meta Reads Your Brain
+16:39 Amazon's AI Robots
+17:21 Dubai AI Police Robots
+18:08 Figure 01 Humanoid Robot
+19:00 Nvidia Extreme Robot Dexterity
+19:20 Morph Studio - AI Video Generator
+20:41 Masterpiece X - Text-to-3D Animation
+23:32 Final Thoughts</t>
+  </si>
+  <si>
+    <t>Rerankers have been a common component of retrieval pipelines for many years. They allow us to add a final "reranking" step to our retrieval pipelines — like with Retrieval Augmented Generation (RAG) — that can be used to dramatically optimize our retrieval pipelines and improve their accuracy.
+In this video we'll learn about rerankers, how they compare to the more common embedding retrieval only setup, and how we can create retrieval pipelines with reranking using Cohere AI reranking model. We'll also be using the (more typical) OpenAI text-embedding-ada-002 model with the Pinecone Vector Database.
+📌 Code (08:32):
+https://github.com/pinecone-io/examples/blob/master/learn/generation/better-rag/00-rerankers.ipynb
+🌲 Subscribe for Latest Articles and Videos:
+https://www.pinecone.io/newsletter-signup/
+👋🏼 AI Consulting:
+https://aurelio.ai
+👾 Discord:
+https://discord.gg/c5QtDB9RAP
+Twitter: https://twitter.com/jamescalam
+LinkedIn: https://www.linkedin.com/in/jamescalam/
+00:00 RAG and Rerankers
+01:25 Problems of Retrieval Only
+04:32 How Embedding Models Work
+06:34 How Rerankers Work
+08:20 Implementing Reranking in Python
+13:11 Testing Retrieval without Reranking
+15:21 Retrieval with Cohere Reranking
+21:54 Tips for Reranking
+#artificialintelligence #nlp #ai #openai</t>
+  </si>
+  <si>
+    <t>I might be obsessed with AutoGen...
+In this video, I show you how to use AutoGen powered by TextGen WebUI and RunPod, which means you can use literally any open-source large language model with it, even Falcon 180b or Code LLaMA. 
+Enjoy :) 
+Become a Patron 🔥 - https://patreon.com/MatthewBerman
+Join the Discord 💬 - https://discord.gg/xxysSXBxFW
+Follow me on Twitter 🧠 - https://twitter.com/matthewberman
+Follow me on TikTok 👋 - https://www.tiktok.com/@matthewberman60
+Subscribe to my Substack 🗞️ - https://matthewberman.substack.com
+Media/Sponsorship Inquiries 📈 - https://bit.ly/44TC45V
+Need AI Consulting? ✅ - https://forwardfuture.ai
+Links:
+Use RunPod - https://bit.ly/3OtbnQx
+AutoGen Beginner Tutorial - https://www.youtube.com/watch?v=vU2S6dVf79M
+AutoGen Intermediate Tutorial - https://www.youtube.com/watch?v=V2qZ_lgxTzg
+AutoGen Fully Local - https://www.youtube.com/watch?v=10FCv-gCKug
+AutoGen - https://microsoft.github.io/autogen
+LMStudio - https://lmstudio.ai/
+RunPod TextGen WebUI Template - https://bit.ly/3EqiQdl
+Install TextGen Locally - https://www.youtube.com/watch?v=VPW6mVTTtTc
+RunPod Full Tutorial - https://www.youtube.com/watch?v=_59AsSyMERQ</t>
+  </si>
+  <si>
+    <t>This is an intermediate tutorial for installing and using AutoGen locally instead of Google Colab. I previously created a video giving a beginner overview of AutoGen and a quick Google Colab tutorial, but now we go deeper! I show you step-by-step how to install and use AutoGen in any application using Visual Studio Code, Anaconda, OpenAI, and AutoGen.
+Enjoy :) 
+Become a Patron 🔥 - https://patreon.com/MatthewBerman
+Join the Discord 💬 - https://discord.gg/xxysSXBxFW
+Follow me on Twitter 🧠 - https://twitter.com/matthewberman
+Follow me on TikTok 👋 - https://www.tiktok.com/@matthewberman60
+Subscribe to my Substack 🗞️ - https://matthewberman.substack.com
+Media/Sponsorship Inquiries 📈 - https://bit.ly/44TC45V
+Need AI Consulting? ✅ - https://forwardfuture.ai
+Links:
+Code From Video - https://gist.github.com/mberman84/584b470962c15930340ff49ae4e28a02
+AutoGen GitHub - https://github.com/microsoft/autogen
+Beginner Tutorial AutoGen - https://www.youtube.com/watch?v=vU2S6dVf79M</t>
+  </si>
+  <si>
+    <t>There’s no guaranteed path to safety as artificial intelligence advances, Geoffrey Hinton, AI pioneer, warns. He shares his thoughts on AI’s benefits and dangers with Scott Pelley.
+#news #artificialintelligence #AI 
+"60 Minutes" is the most successful television broadcast in history. Offering hard-hitting investigative reports, interviews, feature segments and profiles of people in the news, the broadcast began in 1968 and is still a hit, over 50 seasons later, regularly making Nielsen's Top 10.
+Subscribe to the “60 Minutes” YouTube channel: http://bit.ly/1S7CLRu
+Watch full episodes: http://cbsn.ws/1Qkjo1F
+Get more “60 Minutes” from “60 Minutes: Overtime”: http://cbsn.ws/1KG3sdr
+Follow “60 Minutes” on Instagram: http://bit.ly/23Xv8Ry
+Like “60 Minutes” on Facebook: http://on.fb.me/1Xb1Dao
+Follow “60 Minutes” on Twitter: http://bit.ly/1KxUsqX
+Subscribe to our newsletter: http://cbsn.ws/1RqHw7T
+Download the CBS News app: http://cbsn.ws/1Xb1WC8
+Try Paramount+ free: https://bit.ly/2OiW1kZ
+For video licensing inquiries, contact: licensing@veritone.com</t>
+  </si>
+  <si>
+    <t>YES, THIS IS A REUPLOAD. The original was age-restricted and demonetized. To support the channel directly, you can buy Snatoms: https://ve42.co/snatoms1 https://ve42.co/amzn or support on Patreon: https://ve42.co/p
+Fritz Haber is the scientist who arguably most transformed the world. 
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+A huge thanks to Dan Charles for writing a fantastic biography of Fritz Haber, for taking the time to talk to us about it, and providing valuable feedback. This video would not be what it is without his contributions. http://site.danielcharles.us https://ve42.co/Charles
+Thanks to Tom de Prinse from Explosions and Fire for helping us with the chemistry of explosives. If you like explosions and/or fire, you will love his channel. https://www.youtube.com/c/ExplosionsFire2
+Thanks to Michael Kuiper of CSIRO for the animation of the composition of air - https://www.youtube.com/watch?v=j9JvX58aRfg
+Special thanks to Sonya Pemberton, Karl Kruszelnicki, Mary Dobbie, Olivia McRae, and the patreon supporters for giving us feedback on the earlier version of this video.
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+References:
+The primary reference used is Vaclav Smil’s excellent book, Enriching The Earth – 
+Smil, V. (2004). Enriching the earth: Fritz Haber, Carl Bosch, and the transformation of world food production. MIT press. – https://ve42.co/Smil
+Mastermind: The Rise and Fall of Fritz Haber, the Nobel Laureate Who Launched the Age of Chemical Warfare, by Dan Charles – https://ve42.co/Charles
+Stoltzenberg, D. (2004). Fritz Haber: Chemist, Nobel Laureate, German, Jew. Chemical Heritage Foundation. – https://ve42.co/Stoltzenberg
+Postgate, J. R. (1982). The fundamentals of nitrogen fixation. CUP Archive. – https://ve42.co/postgate
+Miles, A. G. (1992). Biological nitrogen fixation. – https://ve42.co/Miles
+Friedrich, B., &amp; Hoffmann, D. (2017). Clara Immerwahr: A life in the shadow of Fritz Haber. In One Hundred Years of Chemical Warfare: Research, Deployment, Consequences(pp. 45-67). Springer, Cham. – https://ve42.co/Friedrich2017
+Da Silva, G. (2020). What is ammonium nitrate, the chemical that exploded in Beirut. Sci Am, 5. – https://ve42.co/Silva
+Rodrigues, P., &amp; Micael, J. (2021). The importance of guano birds to the Inca Empire and the first conservation measures implemented by humans. – https://ve42.co/rodrigues
+Allison, F. E. (1957). Nitrogen and soil fertility. Soil, the, 85-94. – https://ve42.co/Allison
+Crookes, W. (1898). Address of the President before the British Association for the Advancement of Science, Bristol, 1898. Science, 8(200), 561-575. – https://ve42.co/Crookes
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+Special thanks to Patreon supporters: RayJ Johnson, Brian Busbee, Jerome Barakos M.D., Amadeo Bee, Julian Lee, Inconcision, TTST, Balkrishna Heroor, Chris LaClair, Avi Yashchin, John H. Austin, Jr., OnlineBookClub.org, Matthew Gonzalez, Eric Sexton, john kiehl, Diffbot, Gnare, Dave Kircher, Burt Humburg, Blake Byers, Dumky, Evgeny Skvortsov, Meekay, Bill Linder, Paul Peijzel, Josh Hibschman, Timothy O’Brien, Mac Malkawi, Michael Schneider, jim buckmaster, Juan Benet, Ruslan Khroma, Robert Blum, Richard Sundvall, Lee Redden, Vincent, Stephen Wilcox, Marinus Kuivenhoven, Michael Krugman, Cy 'kkm' K'Nelson, Sam Lutfi, Ron Neal 
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
+Written by Petr Lebedev, Derek Muller, Felicity Nelson and Kovi Rose
+Edited by Trenton Oliver
+Animation by Jakub Mistek, Fabio Albertelli, Ivy Tello, Alex Drakoulis, Nils Ramses Kullack, and Charlie Davies
+SFX by Shaun Clifford
+Filmed by Petr Lebedev, Derek Muller and Raquel Nuno
+Photo of nitrogen deficiency in rice from https://ve42.co/rice
+Additional video/photos supplied by Getty Images
+Music from Epidemic Sound: https://ve42.co/music</t>
   </si>
   <si>
     <t>Go to https://brilliant.org/nutshell/ to dive deeper into these topics and more with a free 30-day trial + 20% off for the first 200 people! 
@@ -1119,6 +1412,16 @@
 https://youtu.be/7QvaGDIw4UA
 Music: “Rise up let’s go” by Amy McKnight
 #MicrosoftWindows #Windows #Windows11 #Microsoft</t>
+  </si>
+  <si>
+    <t>In the true Tech transformation opening keynote, Emad Mostaque will discuss the benefits of generative AI including driving innovation, unlocking creativity, productivity, and efficiency - leading to a bright future if we harness AI’s potential responsibly.
+Featuring:
+Emad Mostaque - Founder &amp; CEO - Stability AI
+---------------------
+CogX - The World’s Biggest Festival of AI and Transformational Tech
+“How do we get the next 10 years right?”:
+The CogX Festival started in 2017 to focus attention on the rising impact of AI on Industry, Government and Society, a subject which has never been higher on the global agenda. Over 6 years, CogX has now evolved to be a Festival of Inspiration, Impact and Transformational Change, with its mission to address the question.
+Learn more at http://www.cogxfestival.com</t>
   </si>
   <si>
     <t>In this video, we work through building a chatbot using Retrieval Augmented Generation (RAG) from start to finish. We use OpenAI's gpt-3.5-turbo Large Language Model (LLM) as the "engine", we implement it with LangChain's ChatOpenAI class, use OpenAI's text-embedding-ada-002 for embedding, and the Pinecone vector database as our knowledge base.
@@ -2800,6 +3103,40 @@
 Produced by Derek Muller, Petr Lebedev, Emily Zhang</t>
   </si>
   <si>
+    <t>In the 46th episode, Stability AI CEO Emad Mostaque discusses the future of AI. From being only years out from generating entire movies in real-time to how it’s revolutionizing the healthcare industry and could help identify cancer. Plus its benefits in education, charities, the potential regulations, and societal impact, and Stable Diffusion becoming the most popular open-source software in the world.
+(0:00) Intro
+(1:03) Introducing Emad Mostaque
+(1:27) Generative AI
+(9:52) Computing power and AI
+(12:23) How Emad got into AI
+(14:49) Open-source AI
+(20:19) Growth of Stable Diffusion
+(21:57) Lensa
+(25:39) Power of Creativity
+(30:00) Ramifications of AI
+(34:09) State of the industry
+(37:32) Business model for AI
+(43:28) AI use cases
+(48:11) Societal impact
+(51:39) Becoming a public figure
+(55:41) Outro
+Mixed and edited: Justin Hrabovsky
+Produced: Andrew Nadeau and Rashad Assir
+Executive Producer: Josh Machiz
+Music: Griff Lawson
+🎙 Listen to the show
+Apple Podcasts: https://podcasts.apple.com/us/podcast/three-cartoon-avatars/id1606770839
+Spotify: https://open.spotify.com/show/5WqBqDb4br3LlyVrdqOYYb?si=3076e6c1b5c94d63&amp;nd=1
+Google Podcasts: https://podcasts.google.com/feed/aHR0cHM6Ly9mZWVkcy5zaW1wbGVjYXN0LmNvbS9zb0hJZkhWbg
+🎥 Subscribe on YouTube: https://www.youtube.com/channel/UCugS0jD5IAdoqzjaNYzns7w?sub_confirmation=1
+Follow on Socials
+📸 Instagram - https://instagram.com/cartoonavatars
+🐦 Twitter - https://twitter.com/cartoonavatars
+🎬 Clips on TikTok - https://www.tiktok.com/@cartoonavatars
+About the Show
+A Saturday morning podcast hosted by Logan Bartlett (Partner and Managing Director at Redpoint Ventures) covering the tech news with his friends and other people with industry expertise.</t>
+  </si>
+  <si>
     <t>In this lab, they use different flow visualization techniques to help detect contraband, residues, and develop trace particle detection methods. Part of this video was sponsored by Caseta by Lutron. Find out more at https://casetawireless.com/veritasium
 ▀▀▀
 Thanks to Rich Press and NIST for the great visit. 
@@ -3115,6 +3452,36 @@
 ▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀
 Many Thanks to our wonderful Patreons (from http://kgs.link/patreon) who support us every month and made this video possible:
 BBumbrazz, Sir Harry Farr, Abigail von Kelsch, Szabolcs Dombi, Conner Wilson, Enoch, Moody Bastard, Diego Marcheselli, Paxton LaRiviere, Richard Hagen, Robin Harn, Izzy Crow, Kristy Evangelista, Michael Baker, Tuna The Fish, @charlievankamp, Calvin Black, Justin Fisher, Jan Hübler, Anshul Choudhry, garshtoshteles, Mark Moses, Mau Magaña, seasar2000, Toda, newline, Matt, schubadu, Slumperd, Cracker, Josh Carpenter, Benedikt S., Jeti, Kevin Williams, Enrique Mejia, Juan Carlos Coto Sanchez, Paulmega, Jasmeet Singh, Austin Daily, Andrew Bourgeois, Andrew Dawson, Fin Brewin, Graesha Lizardo, Hagen, Diogo Moreno, Madeline McKinnon, akshay niranjan, The Entity, sontino catalano, Aubrey Temple, Terone, Oleksandr Bolgarov, Jacob Bell, Kyle Harmse, Henry Angulo, Luka Dulčić, mors741, Billyboots75, Joe Bedell, Merasmus 2.0, jimmy davies, PBYuki-Onna, Billy Z Duke</t>
+  </si>
+  <si>
+    <t>Not everything that is true can be proven. This discovery transformed infinity, changed the course of a world war and led to the modern computer. This video is sponsored by Brilliant. The first 200 people to sign up via https://brilliant.org/veritasium get 20% off a yearly subscription. 
+Special thanks to Prof. Asaf Karagila for consultation on set theory and specific rewrites, to Prof. Alex Kontorovich for reviews of earlier drafts, Prof. Toby ‘Qubit’ Cubitt for the help with the spectral gap, to Henry Reich for the helpful feedback and comments on the video. 
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀ 
+References:
+Dunham, W. (2013, July). A Note on the Origin of the Twin Prime Conjecture. In Notices of the International Congress of Chinese Mathematicians (Vol. 1, No. 1, pp. 63-65). International Press of Boston.  — https://ve42.co/Dunham2013
+Conway, J. (1970). The game of life. Scientific American, 223(4), 4. — https://ve42.co/Conway1970
+Churchill, A., Biderman, S., Herrick, A. (2019). Magic: The Gathering is Turing Complete. ArXiv. — https://ve42.co/Churchill2019
+Gaifman, H. (2006). Naming and Diagonalization, from Cantor to Godel to Kleene. Logic Journal of the IGPL, 14(5), 709-728. — https://ve42.co/Gaifman2006
+Lénárt, I. (2010). Gauss, Bolyai, Lobachevsky–in General Education?(Hyperbolic Geometry as Part of the Mathematics Curriculum). In Proceedings of Bridges 2010: Mathematics, Music, Art, Architecture, Culture (pp. 223-230). Tessellations Publishing. — https://ve42.co/Lnrt2010
+Attribution of Poincare’s quote, The Mathematical Intelligencer, vol. 13, no. 1, Winter 1991. —  https://ve42.co/Poincare
+Irvine, A. D., &amp; Deutsch, H. (1995). Russell’s paradox. — https://ve42.co/Irvine1995
+Gödel, K. (1992). On formally undecidable propositions of Principia Mathematica and related systems. Courier Corporation. —  https://ve42.co/Godel1931
+Russell, B., &amp; Whitehead, A. (1973). Principia Mathematica [PM], vol I, 1910, vol. II, 1912, vol III, 1913, vol. I, 1925, vol II &amp; III, 1927, Paperback Edition to* 56. Cambridge UP. — https://ve42.co/Russel1910
+Gödel, K. (1986). Kurt Gödel: Collected Works: Volume I: Publications 1929-1936 (Vol. 1). Oxford University Press, USA. — https://ve42.co/Godel1986
+Cubitt, T. S., Perez-Garcia, D., &amp; Wolf, M. M. (2015). Undecidability of the spectral gap. Nature, 528(7581), 207-211. — https://ve42.co/Cubitt2015
+ ▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀ 
+Special thanks to Patreon supporters: Paul Peijzel, Crated Comments, Anna, Mac Malkawi, Michael Schneider, Oleksii Leonov, Jim Osmun, Tyson McDowell, Ludovic Robillard, Jim buckmaster, fanime96, Juan Benet, Ruslan Khroma, Robert Blum, Richard Sundvall, Lee Redden, Vincent, Marinus Kuivenhoven, Alfred Wallace, Arjun Chakroborty, Joar Wandborg, Clayton Greenwell, Pindex, Michael Krugman, Cy 'kkm' K'Nelson, Sam Lutfi, Ron Neal 
+▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀ 
+Executive Producer: Derek Muller
+Writers: Adam Becker, Jonny Hyman, Derek Muller
+Animators: Fabio Albertelli, Jakub Misiek, Ivy Tello, Jonny Hyman
+SFX &amp; Music: Jonny Hyman
+Camerapeople: Derek Muller, Raquel Nuno
+Editors: Derek Muller
+Producers: Petr Lebedev, Emily Zhang
+Additional video supplied by Getty Images 
+Thumbnail by Geoff Barrett
+ ▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀▀</t>
   </si>
   <si>
     <t>Pager, a nine year old Macaque, plays MindPong with his Neuralink. 
@@ -3966,27 +4333,33 @@
 Reddit: https://www.reddit.com/r/3Blue1Brown</t>
   </si>
   <si>
+    <t>Veritasium</t>
+  </si>
+  <si>
+    <t>Matt Wolfe</t>
+  </si>
+  <si>
+    <t>James Briggs</t>
+  </si>
+  <si>
+    <t>Matthew Berman</t>
+  </si>
+  <si>
+    <t>60 Minutes</t>
+  </si>
+  <si>
     <t>Kurzgesagt – In a Nutshell</t>
   </si>
   <si>
     <t>AI Explained</t>
   </si>
   <si>
-    <t>Matthew Berman</t>
-  </si>
-  <si>
     <t>Piers Morgan Uncensored</t>
   </si>
   <si>
     <t>The Diary Of A CEO</t>
   </si>
   <si>
-    <t>James Briggs</t>
-  </si>
-  <si>
-    <t>Matt Wolfe</t>
-  </si>
-  <si>
     <t>DeepLearningAI</t>
   </si>
   <si>
@@ -4008,6 +4381,9 @@
     <t>Windows</t>
   </si>
   <si>
+    <t>CogX</t>
+  </si>
+  <si>
     <t>Google</t>
   </si>
   <si>
@@ -4083,9 +4459,6 @@
     <t>Smart Sense</t>
   </si>
   <si>
-    <t>Veritasium</t>
-  </si>
-  <si>
     <t>The Aspen Institute</t>
   </si>
   <si>
@@ -4116,6 +4489,9 @@
     <t>EO</t>
   </si>
   <si>
+    <t>The Logan Bartlett Show</t>
+  </si>
+  <si>
     <t>Inspirational Ideas</t>
   </si>
   <si>
@@ -4125,6 +4501,27 @@
     <t>Neuralink</t>
   </si>
   <si>
+    <t>2023-10-21T16:31:35Z</t>
+  </si>
+  <si>
+    <t>2023-10-20T20:36:01Z</t>
+  </si>
+  <si>
+    <t>2023-10-18T16:19:30Z</t>
+  </si>
+  <si>
+    <t>2023-10-18T15:14:41Z</t>
+  </si>
+  <si>
+    <t>2023-10-10T14:44:24Z</t>
+  </si>
+  <si>
+    <t>2023-10-09T12:03:13Z</t>
+  </si>
+  <si>
+    <t>2023-10-07T17:45:44Z</t>
+  </si>
+  <si>
     <t>2023-10-04T14:00:02Z</t>
   </si>
   <si>
@@ -4170,6 +4567,9 @@
     <t>2023-09-21T15:00:58Z</t>
   </si>
   <si>
+    <t>2023-09-21T13:38:14Z</t>
+  </si>
+  <si>
     <t>2023-09-20T13:00:13Z</t>
   </si>
   <si>
@@ -4362,6 +4762,9 @@
     <t>2023-02-11T17:58:50Z</t>
   </si>
   <si>
+    <t>2023-01-06T20:00:02Z</t>
+  </si>
+  <si>
     <t>2022-12-24T21:10:10Z</t>
   </si>
   <si>
@@ -4387,6 +4790,9 @@
   </si>
   <si>
     <t>2021-08-10T13:59:41Z</t>
+  </si>
+  <si>
+    <t>2021-05-22T14:23:50Z</t>
   </si>
   <si>
     <t>2021-04-08T23:34:43Z</t>
@@ -4820,7 +5226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4854,68 +5260,68 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="G3" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="G4" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4923,22 +5329,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4946,344 +5352,344 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="G9" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="G12" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="G14" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="G18" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="G19" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F20" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="G20" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5291,91 +5697,91 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="F21" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="G22" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G23" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="F24" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="G24" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5383,321 +5789,321 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F25" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G25" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="F26" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="F28" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="G28" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F29" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="G29" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="F30" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G30" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="G31" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="G32" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="G33" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="F34" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="G34" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F35" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G35" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E36" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="F36" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="G36" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="F37" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="G37" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="F38" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="G38" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5705,114 +6111,114 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G39" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E40" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="G41" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="G42" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F43" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="G43" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5820,114 +6226,114 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="G44" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="G46" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="G48" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5935,160 +6341,160 @@
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F49" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="G49" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="G50" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="G51" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="F52" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="F53" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G53" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="G54" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="G55" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6096,45 +6502,45 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E56" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E57" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="G57" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6142,45 +6548,45 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F58" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="G58" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F59" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="G59" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6188,344 +6594,344 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="G60" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F61" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="G61" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="F62" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="G62" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="F63" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="G64" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="G65" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F66" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G66" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="F67" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="G67" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="G68" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F69" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="G69" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="G70" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E71" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="F71" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="G71" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G72" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E73" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="F73" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="G73" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F74" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="G74" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6533,160 +6939,160 @@
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="F75" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="G75" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E76" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="F76" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G76" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F77" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="G77" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="F78" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="G78" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F79" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G79" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="F80" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="G80" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E81" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="F81" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G81" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6694,45 +7100,45 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F82" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G82" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E83" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="F83" t="s">
         <v>391</v>
       </c>
       <c r="G83" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6740,45 +7146,45 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E84" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="F84" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="G84" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F85" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G85" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6786,22 +7192,22 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="F86" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="G86" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6809,22 +7215,22 @@
         <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F87" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="G87" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6832,91 +7238,91 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E88" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="F88" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="G88" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="F89" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="G89" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E90" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="F90" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="G90" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="F91" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G91" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6924,22 +7330,22 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F92" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="G92" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6947,45 +7353,45 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="F93" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G93" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E94" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G94" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6993,22 +7399,22 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="F95" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="G95" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7016,22 +7422,22 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="F96" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G96" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7039,68 +7445,68 @@
         <v>7</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E97" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G97" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E98" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F98" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="G98" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E99" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F99" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="G99" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7108,45 +7514,45 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E100" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F100" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G100" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E101" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F101" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="G101" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7154,22 +7560,22 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E102" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="F102" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="G102" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7177,22 +7583,22 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E103" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="F103" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G103" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7200,22 +7606,22 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E104" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="F104" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G104" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7223,22 +7629,22 @@
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E105" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="F105" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="G105" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7246,22 +7652,22 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E106" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F106" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="G106" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7269,22 +7675,22 @@
         <v>7</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D107" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E107" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="F107" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G107" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7292,45 +7698,45 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D108" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E108" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="F108" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G108" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E109" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="F109" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G109" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7338,22 +7744,22 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E110" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="F110" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G110" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7361,22 +7767,252 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E111" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G111" t="s">
-        <v>504</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" t="s">
+        <v>245</v>
+      </c>
+      <c r="E112" t="s">
+        <v>364</v>
+      </c>
+      <c r="F112" t="s">
+        <v>379</v>
+      </c>
+      <c r="G112" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" t="s">
+        <v>365</v>
+      </c>
+      <c r="F113" t="s">
+        <v>424</v>
+      </c>
+      <c r="G113" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" t="s">
+        <v>247</v>
+      </c>
+      <c r="E114" t="s">
+        <v>366</v>
+      </c>
+      <c r="F114" t="s">
+        <v>424</v>
+      </c>
+      <c r="G114" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" t="s">
+        <v>248</v>
+      </c>
+      <c r="E115" t="s">
+        <v>367</v>
+      </c>
+      <c r="F115" t="s">
+        <v>379</v>
+      </c>
+      <c r="G115" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" t="s">
+        <v>368</v>
+      </c>
+      <c r="F116" t="s">
+        <v>424</v>
+      </c>
+      <c r="G116" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" t="s">
+        <v>369</v>
+      </c>
+      <c r="F117" t="s">
+        <v>424</v>
+      </c>
+      <c r="G117" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" t="s">
+        <v>251</v>
+      </c>
+      <c r="E118" t="s">
+        <v>370</v>
+      </c>
+      <c r="F118" t="s">
+        <v>424</v>
+      </c>
+      <c r="G118" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" t="s">
+        <v>371</v>
+      </c>
+      <c r="F119" t="s">
+        <v>424</v>
+      </c>
+      <c r="G119" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" t="s">
+        <v>253</v>
+      </c>
+      <c r="E120" t="s">
+        <v>372</v>
+      </c>
+      <c r="F120" t="s">
+        <v>424</v>
+      </c>
+      <c r="G120" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" t="s">
+        <v>254</v>
+      </c>
+      <c r="E121" t="s">
+        <v>373</v>
+      </c>
+      <c r="F121" t="s">
+        <v>424</v>
+      </c>
+      <c r="G121" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -7491,6 +8127,16 @@
     <hyperlink ref="B109" r:id="rId108"/>
     <hyperlink ref="B110" r:id="rId109"/>
     <hyperlink ref="B111" r:id="rId110"/>
+    <hyperlink ref="B112" r:id="rId111"/>
+    <hyperlink ref="B113" r:id="rId112"/>
+    <hyperlink ref="B114" r:id="rId113"/>
+    <hyperlink ref="B115" r:id="rId114"/>
+    <hyperlink ref="B116" r:id="rId115"/>
+    <hyperlink ref="B117" r:id="rId116"/>
+    <hyperlink ref="B118" r:id="rId117"/>
+    <hyperlink ref="B119" r:id="rId118"/>
+    <hyperlink ref="B120" r:id="rId119"/>
+    <hyperlink ref="B121" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/processed_links.xlsx
+++ b/processed_links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="570">
   <si>
     <t>Category</t>
   </si>
@@ -37,18 +37,18 @@
     <t>Publish time</t>
   </si>
   <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Informative Talk</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
     <t>News</t>
   </si>
   <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
-    <t>Informative Talk</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -61,6 +61,18 @@
     <t>Story</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VFf8XJUIHnU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PUPO2tTyPOo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ow3ao6YsCgQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AiOUojVd6xQ</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=lFlu60qs7_4</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t>https://www.youtube.com/watch?v=wCOaTFKcExo</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=e5dQ5zEuE9Q</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=LhnCsygAvzY</t>
   </si>
   <si>
@@ -424,6 +439,18 @@
     <t>-</t>
   </si>
   <si>
+    <t>LangChain Multi-Query Retriever for RAG</t>
+  </si>
+  <si>
+    <t>AutoGen Advanced Tutorial 🧠 Build Insane AI Agents (Bonus: NEW Agent Type!)</t>
+  </si>
+  <si>
+    <t>The Love Expert: Why Women Are Addicted To Toxic Men,"Have A Boring Relationship Instead!" Logan Ury</t>
+  </si>
+  <si>
+    <t>McKinsey: Last Week Tonight with John Oliver (HBO)</t>
+  </si>
+  <si>
     <t>How One Line in the Oldest Math Text Hinted at Hidden Universes</t>
   </si>
   <si>
@@ -493,6 +520,9 @@
     <t>Emad Mostaque: How generative AI will unlock humanity's potential | CogX Festival 2023</t>
   </si>
   <si>
+    <t>Tristan Harris: Beyond the AI dilemma | CogX Festival 2023</t>
+  </si>
+  <si>
     <t>Chatbots with RAG: LangChain Full Walkthrough</t>
   </si>
   <si>
@@ -779,6 +809,103 @@
   </si>
   <si>
     <t>Eigenvectors and eigenvalues | Chapter 14, Essence of linear algebra</t>
+  </si>
+  <si>
+    <t>In this video, we'll learn about an advanced technique for RAG in LangChain called "Multi-Query". Multi-query allows us to broaden our search score by using an LLM to turn one query into multiple, allowing us to search a broader vector space and return a higher variety of results. In this example, we use OpenAI's text-embedding-ada-002, gpt-3.5-turbo, Pinecone vector database, and of course the LangChain library.
+📌 Code:
+https://github.com/pinecone-io/examples/blob/master/learn/generation/langchain/handbook/10-langchain-multi-query.ipynb
+🌲 Subscribe for Latest Articles and Videos:
+https://www.pinecone.io/newsletter-signup/
+👋🏼 AI Consulting:
+https://aurelio.ai
+👾 Discord:
+https://discord.gg/c5QtDB9RAP
+Twitter: https://twitter.com/jamescalam
+LinkedIn: https://www.linkedin.com/in/jamescalam/
+👉 Thumbnail credit @LaCarnevali 
+00:00 LangChain Multi-Query
+00:31 What is Multi-Query in RAG?
+01:50 RAG Index Code
+02:56 Creating a LangChain MultiQueryRetriever
+07:16 Adding Generation to Multi-Query
+08:51 RAG in LangChain using Sequential Chain
+11:18 Customizing LangChain Multi Query
+13:41 Reducing Multi Query Hallucination
+16:56 Multi Query in a Larger RAG Pipeline
+#artificialintelligence #nlp #ai #openai #chatbot #langchain #vectordb</t>
+  </si>
+  <si>
+    <t>In this video, I break down every topic you need to know to become an AutoGen master. Some topics include caching, best practices, enhanced inference, multi-agent setup, LLM daisy-chaining, a brand-new agent type called Teachable Agent, function calling, templating, and so much more. 
+Enjoy :) 
+Become a Patron 🔥 - https://patreon.com/MatthewBerman
+Join the Discord 💬 - https://discord.gg/xxysSXBxFW
+Follow me on Twitter 🧠 - https://twitter.com/matthewberman
+Follow me on TikTok 👋 - https://www.tiktok.com/@matthewberman60
+Subscribe to my Substack 🗞️ - https://matthewberman.substack.com
+Media/Sponsorship Inquiries 📈 - https://bit.ly/44TC45V
+Need AI Consulting? ✅ - https://forwardfuture.ai
+Links:
+Use RunPod - https://bit.ly/3OtbnQx
+AutoGen Beginner Tutorial - https://www.youtube.com/watch?v=vU2S6dVf79M
+AutoGen Intermediate Tutorial - https://www.youtube.com/watch?v=V2qZ_lgxTzg
+AutoGen Fully Local - https://www.youtube.com/watch?v=10FCv-gCKug
+AutoGen 100% Open-Source - https://www.youtube.com/watch?v=FHXmiAvloUg
+AutoGen - https://microsoft.github.io/autogen
+Chapters:
+0:00 - Intro
+0:56 - LLM Config
+6:47 - Config List
+10:54 - Caching
+13:31 - Enhanced Inference
+19:36 - Templating
+21:20 - RAG Agents
+26:20 - NEW Teachable Agent
+31:35 - Using Docker
+32:57 - Function Calling
+36:07 - Agent Tool Learning</t>
+  </si>
+  <si>
+    <t>If you want to hear more dating and relationship advice, I recommend you check out my most recent conversation with Jay Shetty, which you can find here: https://www.youtube.com/watch?v=cLTUA1lneS0
+0:00 Intro
+02:10 Why Does Your Work Matter?
+05:55 Attachment Theories, which one are you?
+11:26 What To Do As An Avoidant Attached person
+19:31 How To Find A Secure Partner &amp; Maintain A Healthy Relationship
+35:03 The "secretary problem" That Could Save Your Love Life
+38:48 What To Do As An Anxious Attached Person
+45:02 Why Icks Are Stopping You Finding Love
+50:00 3 Dating Tendencies
+01:02:02 Why You Need To Skip The Small Talk!
+01:09:37 The Number One Way To Find Love
+01:18:15 8 Date Questions To Find The One
+01:28:06 The Qualities You Should Be Looking For In A Person (backed by science)
+01:37:43 How To Get The Perfect Dating Profile
+01:44:29 The Last Guest's Question
+You can find out which of the 3 dating tendencies you are with Logan’s quiz, here: https://bit.ly/491O3lj
+You can purchase Logan’s book, ‘How to Not Die Alone: The Surprising Science That Will Help You Find Love’, here: https://amzn.to/3Q71QhL
+Follow Logan:
+Instagram: https://bit.ly/3SddZUL
+Twitter: https://bit.ly/46IWMqV
+Listen on:
+Apple podcast - https://podcasts.apple.com/gb/podcast/the-diary-of-a-ceo-by-steven-bartlett/id1291423644
+Spotify - https://open.spotify.com/show/7iQXmUT7XGuZSzAMjoNWlX
+Join this channel to get access to perks:
+https://www.youtube.com/channel/UCGq-a57w-aPwyi3pW7XLiHw/join
+FOLLOW ►
+Instagram: https://www.instagram.com/steven/
+Twitter: http://bit.ly/3ztHuHm
+Linkedin: https://www.linkedin.com/in/steven-bartlett-56986834/
+Sponsors:
+Whoop: join.whoop.com/CEO
+Huel: https://g2ul0.app.link/G4RjcdKNKsb</t>
+  </si>
+  <si>
+    <t>John Oliver discusses the oldest and largest management consulting firm: McKinsey &amp; Company.
+Connect with Last Week Tonight online... 
+Subscribe to the Last Week Tonight YouTube channel for more almost news as it almost happens: www.youtube.com/lastweektonight 
+Find Last Week Tonight on Facebook like your mom would: www.facebook.com/lastweektonight 
+Follow us on Twitter for news about jokes and jokes about news: www.twitter.com/lastweektonight 
+Visit our official site for all that other stuff at once: www.hbo.com/lastweektonight</t>
   </si>
   <si>
     <t>Discover strange new universes that turn up at the core of Einstein’s General Relativity. Head to https://brilliant.org/veritasium  to start your free 30-day trial, and the first 200 people get 20% off an annual premium subscription.
@@ -1417,6 +1544,16 @@
     <t>In the true Tech transformation opening keynote, Emad Mostaque will discuss the benefits of generative AI including driving innovation, unlocking creativity, productivity, and efficiency - leading to a bright future if we harness AI’s potential responsibly.
 Featuring:
 Emad Mostaque - Founder &amp; CEO - Stability AI
+---------------------
+CogX - The World’s Biggest Festival of AI and Transformational Tech
+“How do we get the next 10 years right?”:
+The CogX Festival started in 2017 to focus attention on the rising impact of AI on Industry, Government and Society, a subject which has never been higher on the global agenda. Over 6 years, CogX has now evolved to be a Festival of Inspiration, Impact and Transformational Change, with its mission to address the question.
+Learn more at http://www.cogxfestival.com</t>
+  </si>
+  <si>
+    <t>Tristan Harris, co-founder of Center for Humane Technology, is collaborating with policymakers, researchers and AI technology insiders to de-escalate the competitive pressures driving AI deployment towards a dangerous future. Join him as he shares a vision for the principles we need to navigate the rocky road ahead.
+Featuring:
+Tristan Harris - Co-founder &amp; Executive Director - Center for Humane Technology
 ---------------------
 CogX - The World’s Biggest Festival of AI and Transformational Tech
 “How do we get the next 10 years right?”:
@@ -4333,18 +4470,24 @@
 Reddit: https://www.reddit.com/r/3Blue1Brown</t>
   </si>
   <si>
+    <t>James Briggs</t>
+  </si>
+  <si>
+    <t>Matthew Berman</t>
+  </si>
+  <si>
+    <t>The Diary Of A CEO</t>
+  </si>
+  <si>
+    <t>LastWeekTonight</t>
+  </si>
+  <si>
     <t>Veritasium</t>
   </si>
   <si>
     <t>Matt Wolfe</t>
   </si>
   <si>
-    <t>James Briggs</t>
-  </si>
-  <si>
-    <t>Matthew Berman</t>
-  </si>
-  <si>
     <t>60 Minutes</t>
   </si>
   <si>
@@ -4357,9 +4500,6 @@
     <t>Piers Morgan Uncensored</t>
   </si>
   <si>
-    <t>The Diary Of A CEO</t>
-  </si>
-  <si>
     <t>DeepLearningAI</t>
   </si>
   <si>
@@ -4501,6 +4641,18 @@
     <t>Neuralink</t>
   </si>
   <si>
+    <t>2023-10-28T18:15:10Z</t>
+  </si>
+  <si>
+    <t>2023-10-26T14:08:15Z</t>
+  </si>
+  <si>
+    <t>2023-10-26T07:00:31Z</t>
+  </si>
+  <si>
+    <t>2023-10-23T06:30:02Z</t>
+  </si>
+  <si>
     <t>2023-10-21T16:31:35Z</t>
   </si>
   <si>
@@ -4568,6 +4720,9 @@
   </si>
   <si>
     <t>2023-09-21T13:38:14Z</t>
+  </si>
+  <si>
+    <t>2023-09-21T10:36:59Z</t>
   </si>
   <si>
     <t>2023-09-20T13:00:13Z</t>
@@ -5226,7 +5381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5263,88 +5418,88 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G2" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5355,19 +5510,19 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="G6" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5378,19 +5533,19 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5401,19 +5556,19 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G8" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5424,19 +5579,19 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5447,88 +5602,88 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G10" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="G11" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="G12" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F13" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="G13" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5539,249 +5694,249 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F14" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="G14" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F15" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G16" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G17" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="G18" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G19" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G20" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G21" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G22" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G23" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G24" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5792,433 +5947,433 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F25" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G26" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="G28" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="G29" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G30" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G31" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G32" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G33" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F35" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="G35" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G36" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G37" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F38" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="G38" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F39" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="G39" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F40" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G40" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F41" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G41" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="G42" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6229,111 +6384,111 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F44" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="G45" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G46" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G48" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6344,272 +6499,272 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F49" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G50" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G52" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E53" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="G53" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F54" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="G54" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G55" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="G56" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F57" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="G57" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F58" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="G58" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="G59" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F60" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="G60" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6620,111 +6775,111 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G61" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="G62" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="G63" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F64" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="G64" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G65" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6735,272 +6890,272 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F66" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="G66" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F67" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G67" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F68" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="G68" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F69" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G69" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F70" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="G70" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F71" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G71" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F72" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="G72" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F73" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G73" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="G74" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F75" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="G75" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F76" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="G76" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="G77" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7011,88 +7166,88 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="G78" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E79" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F79" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="G79" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F80" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="G80" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F81" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G81" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7103,42 +7258,42 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="G82" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F83" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G83" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7149,870 +7304,985 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F84" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="G84" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E85" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F85" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="G85" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F86" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="G86" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="G87" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E88" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F88" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G88" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F89" t="s">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="G89" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F90" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="G90" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F91" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="G91" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E92" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F92" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="G92" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E93" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F93" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="G93" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E94" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F94" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G94" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E95" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F95" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G95" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E96" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F96" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G96" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D97" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E97" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F97" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="G97" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E98" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="G98" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E99" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F99" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G99" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F100" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="G100" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E101" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F101" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="G101" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E102" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F102" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="G102" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E103" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F103" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="G103" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E104" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F104" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G104" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F105" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G105" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F106" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="G106" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E107" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F107" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="G107" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D108" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E108" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F108" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G108" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E109" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F109" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G109" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E110" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="F110" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G110" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E111" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F111" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="G111" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E112" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F112" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G112" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E113" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F113" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G113" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D114" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E114" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F114" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G114" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E115" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F115" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G115" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E116" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F116" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G116" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E117" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F117" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G117" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E118" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F118" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="G118" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E119" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F119" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="G119" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E120" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F120" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="G120" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C121" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" t="s">
+        <v>383</v>
+      </c>
+      <c r="F121" t="s">
+        <v>440</v>
+      </c>
+      <c r="G121" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D121" t="s">
-        <v>254</v>
-      </c>
-      <c r="E121" t="s">
-        <v>373</v>
-      </c>
-      <c r="F121" t="s">
-        <v>424</v>
-      </c>
-      <c r="G121" t="s">
-        <v>548</v>
+      <c r="C122" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" t="s">
+        <v>384</v>
+      </c>
+      <c r="F122" t="s">
+        <v>440</v>
+      </c>
+      <c r="G122" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" t="s">
+        <v>261</v>
+      </c>
+      <c r="E123" t="s">
+        <v>385</v>
+      </c>
+      <c r="F123" t="s">
+        <v>440</v>
+      </c>
+      <c r="G123" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" t="s">
+        <v>386</v>
+      </c>
+      <c r="F124" t="s">
+        <v>440</v>
+      </c>
+      <c r="G124" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" t="s">
+        <v>263</v>
+      </c>
+      <c r="E125" t="s">
+        <v>387</v>
+      </c>
+      <c r="F125" t="s">
+        <v>440</v>
+      </c>
+      <c r="G125" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" t="s">
+        <v>264</v>
+      </c>
+      <c r="E126" t="s">
+        <v>388</v>
+      </c>
+      <c r="F126" t="s">
+        <v>440</v>
+      </c>
+      <c r="G126" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -8137,6 +8407,11 @@
     <hyperlink ref="B119" r:id="rId118"/>
     <hyperlink ref="B120" r:id="rId119"/>
     <hyperlink ref="B121" r:id="rId120"/>
+    <hyperlink ref="B122" r:id="rId121"/>
+    <hyperlink ref="B123" r:id="rId122"/>
+    <hyperlink ref="B124" r:id="rId123"/>
+    <hyperlink ref="B125" r:id="rId124"/>
+    <hyperlink ref="B126" r:id="rId125"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
